--- a/output/data/data_graficos_dtohl.xlsx
+++ b/output/data/data_graficos_dtohl.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,51 @@
           <t>tc</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>lag_afiliados</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lag_ocupados_autoemp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lag_tasa_sind</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lag_tasa_sind_per</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>lag_n_sind</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>lag_n_sind_mil</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>lag_n_huelgas</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>lag_dptp</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>lag_tc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -487,6 +532,33 @@
       <c r="K3">
         <v>101.38</v>
       </c>
+      <c r="L3">
+        <v>63877</v>
+      </c>
+      <c r="M3">
+        <v>516410.3819456741</v>
+      </c>
+      <c r="N3">
+        <v>0.1236942599010719</v>
+      </c>
+      <c r="O3">
+        <v>12.36942599010719</v>
+      </c>
+      <c r="P3">
+        <v>1260</v>
+      </c>
+      <c r="Q3">
+        <v>2.439919962981207</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>3776.88</v>
+      </c>
+      <c r="T3">
+        <v>854.71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -524,6 +596,33 @@
       <c r="K4">
         <v>177.63</v>
       </c>
+      <c r="L4">
+        <v>60969</v>
+      </c>
+      <c r="M4">
+        <v>98096.69262825386</v>
+      </c>
+      <c r="N4">
+        <v>0.6215194250334968</v>
+      </c>
+      <c r="O4">
+        <v>62.15194250334968</v>
+      </c>
+      <c r="P4">
+        <v>298</v>
+      </c>
+      <c r="Q4">
+        <v>3.037819033606948</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>4540.57</v>
+      </c>
+      <c r="T4">
+        <v>433.92</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -561,6 +660,33 @@
       <c r="K5">
         <v>147.33</v>
       </c>
+      <c r="L5">
+        <v>123068</v>
+      </c>
+      <c r="M5">
+        <v>596569.2097934319</v>
+      </c>
+      <c r="N5">
+        <v>0.2062929128417699</v>
+      </c>
+      <c r="O5">
+        <v>20.62929128417699</v>
+      </c>
+      <c r="P5">
+        <v>1365</v>
+      </c>
+      <c r="Q5">
+        <v>2.288083222519387</v>
+      </c>
+      <c r="R5">
+        <v>37</v>
+      </c>
+      <c r="S5">
+        <v>1119.43</v>
+      </c>
+      <c r="T5">
+        <v>109.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -598,6 +724,33 @@
       <c r="K6">
         <v>128.94</v>
       </c>
+      <c r="L6">
+        <v>20283</v>
+      </c>
+      <c r="M6">
+        <v>74256.69086093284</v>
+      </c>
+      <c r="N6">
+        <v>0.2731471031746593</v>
+      </c>
+      <c r="O6">
+        <v>27.31471031746593</v>
+      </c>
+      <c r="P6">
+        <v>214</v>
+      </c>
+      <c r="Q6">
+        <v>2.881895187071788</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4658.25</v>
+      </c>
+      <c r="T6">
+        <v>236.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -635,6 +788,33 @@
       <c r="K7">
         <v>52.79</v>
       </c>
+      <c r="L7">
+        <v>41771</v>
+      </c>
+      <c r="M7">
+        <v>636615.1894047681</v>
+      </c>
+      <c r="N7">
+        <v>0.06561420571673081</v>
+      </c>
+      <c r="O7">
+        <v>6.56142057167308</v>
+      </c>
+      <c r="P7">
+        <v>335</v>
+      </c>
+      <c r="Q7">
+        <v>0.5262205576860698</v>
+      </c>
+      <c r="R7">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>415.44</v>
+      </c>
+      <c r="T7">
+        <v>83.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -672,6 +852,33 @@
       <c r="K8">
         <v>860.08</v>
       </c>
+      <c r="L8">
+        <v>235191</v>
+      </c>
+      <c r="M8">
+        <v>1340175.715250159</v>
+      </c>
+      <c r="N8">
+        <v>0.1754926591518627</v>
+      </c>
+      <c r="O8">
+        <v>17.54926591518628</v>
+      </c>
+      <c r="P8">
+        <v>1960</v>
+      </c>
+      <c r="Q8">
+        <v>1.462494789076329</v>
+      </c>
+      <c r="R8">
+        <v>60</v>
+      </c>
+      <c r="S8">
+        <v>1783.35</v>
+      </c>
+      <c r="T8">
+        <v>457.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -709,6 +916,33 @@
       <c r="K9">
         <v>63.17</v>
       </c>
+      <c r="L9">
+        <v>135355</v>
+      </c>
+      <c r="M9">
+        <v>493696.5070385784</v>
+      </c>
+      <c r="N9">
+        <v>0.2741664120978338</v>
+      </c>
+      <c r="O9">
+        <v>27.41664120978338</v>
+      </c>
+      <c r="P9">
+        <v>1745</v>
+      </c>
+      <c r="Q9">
+        <v>3.534560150055189</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>879</v>
+      </c>
+      <c r="T9">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -746,6 +980,33 @@
       <c r="K10">
         <v>90.79000000000001</v>
       </c>
+      <c r="L10">
+        <v>108913</v>
+      </c>
+      <c r="M10">
+        <v>768556.5821889049</v>
+      </c>
+      <c r="N10">
+        <v>0.1417111017250127</v>
+      </c>
+      <c r="O10">
+        <v>14.17111017250127</v>
+      </c>
+      <c r="P10">
+        <v>837</v>
+      </c>
+      <c r="Q10">
+        <v>1.089054494356373</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>908.33</v>
+      </c>
+      <c r="T10">
+        <v>170.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -783,6 +1044,33 @@
       <c r="K11">
         <v>67.67</v>
       </c>
+      <c r="L11">
+        <v>55712</v>
+      </c>
+      <c r="M11">
+        <v>715158</v>
+      </c>
+      <c r="N11">
+        <v>0.07790166648488865</v>
+      </c>
+      <c r="O11">
+        <v>7.790166648488865</v>
+      </c>
+      <c r="P11">
+        <v>893</v>
+      </c>
+      <c r="Q11">
+        <v>1.248675117945964</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>800</v>
+      </c>
+      <c r="T11">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -820,6 +1108,33 @@
       <c r="K12">
         <v>86.70999999999999</v>
       </c>
+      <c r="L12">
+        <v>34185</v>
+      </c>
+      <c r="M12">
+        <v>64259</v>
+      </c>
+      <c r="N12">
+        <v>0.531987737126317</v>
+      </c>
+      <c r="O12">
+        <v>53.1987737126317</v>
+      </c>
+      <c r="P12">
+        <v>217</v>
+      </c>
+      <c r="Q12">
+        <v>3.37695886957469</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>203.65</v>
+      </c>
+      <c r="T12">
+        <v>101.38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -857,6 +1172,33 @@
       <c r="K13">
         <v>167.43</v>
       </c>
+      <c r="L13">
+        <v>122656</v>
+      </c>
+      <c r="M13">
+        <v>731894</v>
+      </c>
+      <c r="N13">
+        <v>0.1675871096087685</v>
+      </c>
+      <c r="O13">
+        <v>16.75871096087685</v>
+      </c>
+      <c r="P13">
+        <v>1661</v>
+      </c>
+      <c r="Q13">
+        <v>2.269454319887853</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>895.45</v>
+      </c>
+      <c r="T13">
+        <v>177.63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -894,6 +1236,33 @@
       <c r="K14">
         <v>45.18</v>
       </c>
+      <c r="L14">
+        <v>46160</v>
+      </c>
+      <c r="M14">
+        <v>363108</v>
+      </c>
+      <c r="N14">
+        <v>0.1271247122068365</v>
+      </c>
+      <c r="O14">
+        <v>12.71247122068365</v>
+      </c>
+      <c r="P14">
+        <v>186</v>
+      </c>
+      <c r="Q14">
+        <v>0.5122442909547572</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <v>193.48</v>
+      </c>
+      <c r="T14">
+        <v>128.94</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -931,6 +1300,33 @@
       <c r="K15">
         <v>61.08</v>
       </c>
+      <c r="L15">
+        <v>87717</v>
+      </c>
+      <c r="M15">
+        <v>917712</v>
+      </c>
+      <c r="N15">
+        <v>0.09558227417751974</v>
+      </c>
+      <c r="O15">
+        <v>9.558227417751974</v>
+      </c>
+      <c r="P15">
+        <v>1141</v>
+      </c>
+      <c r="Q15">
+        <v>1.243309447844204</v>
+      </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>269.14</v>
+      </c>
+      <c r="T15">
+        <v>52.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -968,6 +1364,33 @@
       <c r="K16">
         <v>488.84</v>
       </c>
+      <c r="L16">
+        <v>93024</v>
+      </c>
+      <c r="M16">
+        <v>374553</v>
+      </c>
+      <c r="N16">
+        <v>0.2483600451738472</v>
+      </c>
+      <c r="O16">
+        <v>24.83600451738472</v>
+      </c>
+      <c r="P16">
+        <v>1310</v>
+      </c>
+      <c r="Q16">
+        <v>3.497502356141855</v>
+      </c>
+      <c r="R16">
+        <v>71</v>
+      </c>
+      <c r="S16">
+        <v>1930.16</v>
+      </c>
+      <c r="T16">
+        <v>860.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1005,6 +1428,33 @@
       <c r="K17">
         <v>97.93000000000001</v>
       </c>
+      <c r="L17">
+        <v>28564</v>
+      </c>
+      <c r="M17">
+        <v>361883</v>
+      </c>
+      <c r="N17">
+        <v>0.07893158838630165</v>
+      </c>
+      <c r="O17">
+        <v>7.893158838630166</v>
+      </c>
+      <c r="P17">
+        <v>204</v>
+      </c>
+      <c r="Q17">
+        <v>0.5637181077862182</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>476.17</v>
+      </c>
+      <c r="T17">
+        <v>63.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1042,6 +1492,33 @@
       <c r="K18">
         <v>149.07</v>
       </c>
+      <c r="L18">
+        <v>100781</v>
+      </c>
+      <c r="M18">
+        <v>720601</v>
+      </c>
+      <c r="N18">
+        <v>0.1398568694742305</v>
+      </c>
+      <c r="O18">
+        <v>13.98568694742305</v>
+      </c>
+      <c r="P18">
+        <v>1345</v>
+      </c>
+      <c r="Q18">
+        <v>1.866497548574038</v>
+      </c>
+      <c r="R18">
+        <v>19</v>
+      </c>
+      <c r="S18">
+        <v>961.1900000000001</v>
+      </c>
+      <c r="T18">
+        <v>90.79000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1079,6 +1556,33 @@
       <c r="K19">
         <v>192.9</v>
       </c>
+      <c r="L19">
+        <v>65281</v>
+      </c>
+      <c r="M19">
+        <v>717684</v>
+      </c>
+      <c r="N19">
+        <v>0.09096064563233958</v>
+      </c>
+      <c r="O19">
+        <v>9.096064563233957</v>
+      </c>
+      <c r="P19">
+        <v>1007</v>
+      </c>
+      <c r="Q19">
+        <v>1.403124494903049</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1094.7</v>
+      </c>
+      <c r="T19">
+        <v>67.67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1116,6 +1620,33 @@
       <c r="K20">
         <v>19</v>
       </c>
+      <c r="L20">
+        <v>34584</v>
+      </c>
+      <c r="M20">
+        <v>60212</v>
+      </c>
+      <c r="N20">
+        <v>0.5743705573639806</v>
+      </c>
+      <c r="O20">
+        <v>57.43705573639806</v>
+      </c>
+      <c r="P20">
+        <v>221</v>
+      </c>
+      <c r="Q20">
+        <v>3.670364711353218</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>1233.14</v>
+      </c>
+      <c r="T20">
+        <v>86.70999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1153,6 +1684,33 @@
       <c r="K21">
         <v>108.56</v>
       </c>
+      <c r="L21">
+        <v>114292</v>
+      </c>
+      <c r="M21">
+        <v>720413</v>
+      </c>
+      <c r="N21">
+        <v>0.1586478866983244</v>
+      </c>
+      <c r="O21">
+        <v>15.86478866983244</v>
+      </c>
+      <c r="P21">
+        <v>1744</v>
+      </c>
+      <c r="Q21">
+        <v>2.420833605168147</v>
+      </c>
+      <c r="R21">
+        <v>70</v>
+      </c>
+      <c r="S21">
+        <v>693.17</v>
+      </c>
+      <c r="T21">
+        <v>167.43</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1190,6 +1748,33 @@
       <c r="K22">
         <v>172.8</v>
       </c>
+      <c r="L22">
+        <v>36336</v>
+      </c>
+      <c r="M22">
+        <v>389481</v>
+      </c>
+      <c r="N22">
+        <v>0.09329338273240544</v>
+      </c>
+      <c r="O22">
+        <v>9.329338273240543</v>
+      </c>
+      <c r="P22">
+        <v>197</v>
+      </c>
+      <c r="Q22">
+        <v>0.5058013099483671</v>
+      </c>
+      <c r="R22">
+        <v>22</v>
+      </c>
+      <c r="S22">
+        <v>94.88</v>
+      </c>
+      <c r="T22">
+        <v>45.18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1227,6 +1812,33 @@
       <c r="K23">
         <v>54.06</v>
       </c>
+      <c r="L23">
+        <v>90632</v>
+      </c>
+      <c r="M23">
+        <v>881317</v>
+      </c>
+      <c r="N23">
+        <v>0.1028370041653571</v>
+      </c>
+      <c r="O23">
+        <v>10.28370041653571</v>
+      </c>
+      <c r="P23">
+        <v>1221</v>
+      </c>
+      <c r="Q23">
+        <v>1.385426583170414</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <v>189.48</v>
+      </c>
+      <c r="T23">
+        <v>61.08</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1264,6 +1876,33 @@
       <c r="K24">
         <v>343.97</v>
       </c>
+      <c r="L24">
+        <v>96699</v>
+      </c>
+      <c r="M24">
+        <v>397817</v>
+      </c>
+      <c r="N24">
+        <v>0.2430740767739941</v>
+      </c>
+      <c r="O24">
+        <v>24.30740767739941</v>
+      </c>
+      <c r="P24">
+        <v>1396</v>
+      </c>
+      <c r="Q24">
+        <v>3.509151192633799</v>
+      </c>
+      <c r="R24">
+        <v>37</v>
+      </c>
+      <c r="S24">
+        <v>1345.5</v>
+      </c>
+      <c r="T24">
+        <v>488.84</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1301,6 +1940,33 @@
       <c r="K25">
         <v>355.45</v>
       </c>
+      <c r="L25">
+        <v>28692</v>
+      </c>
+      <c r="M25">
+        <v>391147</v>
+      </c>
+      <c r="N25">
+        <v>0.07335349625588333</v>
+      </c>
+      <c r="O25">
+        <v>7.335349625588333</v>
+      </c>
+      <c r="P25">
+        <v>204</v>
+      </c>
+      <c r="Q25">
+        <v>0.5215430515893001</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>508.44</v>
+      </c>
+      <c r="T25">
+        <v>97.93000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1338,6 +2004,33 @@
       <c r="K26">
         <v>121.55</v>
       </c>
+      <c r="L26">
+        <v>116896</v>
+      </c>
+      <c r="M26">
+        <v>672184</v>
+      </c>
+      <c r="N26">
+        <v>0.1739047641717149</v>
+      </c>
+      <c r="O26">
+        <v>17.39047641717149</v>
+      </c>
+      <c r="P26">
+        <v>1559</v>
+      </c>
+      <c r="Q26">
+        <v>2.319305428275591</v>
+      </c>
+      <c r="R26">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <v>914.17</v>
+      </c>
+      <c r="T26">
+        <v>149.07</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1375,6 +2068,33 @@
       <c r="K27">
         <v>83.59999999999999</v>
       </c>
+      <c r="L27">
+        <v>66447</v>
+      </c>
+      <c r="M27">
+        <v>696442</v>
+      </c>
+      <c r="N27">
+        <v>0.09540923723727174</v>
+      </c>
+      <c r="O27">
+        <v>9.540923723727174</v>
+      </c>
+      <c r="P27">
+        <v>1013</v>
+      </c>
+      <c r="Q27">
+        <v>1.454536056125277</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>716.08</v>
+      </c>
+      <c r="T27">
+        <v>192.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1412,6 +2132,33 @@
       <c r="K28">
         <v>87.5</v>
       </c>
+      <c r="L28">
+        <v>34090</v>
+      </c>
+      <c r="M28">
+        <v>62904</v>
+      </c>
+      <c r="N28">
+        <v>0.5419369197507313</v>
+      </c>
+      <c r="O28">
+        <v>54.19369197507314</v>
+      </c>
+      <c r="P28">
+        <v>221</v>
+      </c>
+      <c r="Q28">
+        <v>3.513290092839883</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>43</v>
+      </c>
+      <c r="T28">
+        <v>19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1449,6 +2196,33 @@
       <c r="K29">
         <v>185.33</v>
       </c>
+      <c r="L29">
+        <v>105575</v>
+      </c>
+      <c r="M29">
+        <v>747130</v>
+      </c>
+      <c r="N29">
+        <v>0.1413074029954626</v>
+      </c>
+      <c r="O29">
+        <v>14.13074029954626</v>
+      </c>
+      <c r="P29">
+        <v>1497</v>
+      </c>
+      <c r="Q29">
+        <v>2.003667367124864</v>
+      </c>
+      <c r="R29">
+        <v>48</v>
+      </c>
+      <c r="S29">
+        <v>1180.89</v>
+      </c>
+      <c r="T29">
+        <v>108.56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1486,6 +2260,33 @@
       <c r="K30">
         <v>342</v>
       </c>
+      <c r="L30">
+        <v>11197</v>
+      </c>
+      <c r="M30">
+        <v>26548</v>
+      </c>
+      <c r="N30">
+        <v>0.4217643513635679</v>
+      </c>
+      <c r="O30">
+        <v>42.17643513635679</v>
+      </c>
+      <c r="P30">
+        <v>101</v>
+      </c>
+      <c r="Q30">
+        <v>3.804429712219377</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>432.67</v>
+      </c>
+      <c r="T30">
+        <v>147.33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1523,6 +2324,33 @@
       <c r="K31">
         <v>120.76</v>
       </c>
+      <c r="L31">
+        <v>54198</v>
+      </c>
+      <c r="M31">
+        <v>409015</v>
+      </c>
+      <c r="N31">
+        <v>0.1325085877046074</v>
+      </c>
+      <c r="O31">
+        <v>13.25085877046074</v>
+      </c>
+      <c r="P31">
+        <v>196</v>
+      </c>
+      <c r="Q31">
+        <v>0.4792000293387773</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <v>304.4</v>
+      </c>
+      <c r="T31">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1560,6 +2388,33 @@
       <c r="K32">
         <v>147.5</v>
       </c>
+      <c r="L32">
+        <v>92236</v>
+      </c>
+      <c r="M32">
+        <v>913022</v>
+      </c>
+      <c r="N32">
+        <v>0.1010227573924834</v>
+      </c>
+      <c r="O32">
+        <v>10.10227573924834</v>
+      </c>
+      <c r="P32">
+        <v>1217</v>
+      </c>
+      <c r="Q32">
+        <v>1.332936117640101</v>
+      </c>
+      <c r="R32">
+        <v>16</v>
+      </c>
+      <c r="S32">
+        <v>400.81</v>
+      </c>
+      <c r="T32">
+        <v>54.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1597,6 +2452,33 @@
       <c r="K33">
         <v>239.75</v>
       </c>
+      <c r="L33">
+        <v>84833</v>
+      </c>
+      <c r="M33">
+        <v>410826</v>
+      </c>
+      <c r="N33">
+        <v>0.2064937467443638</v>
+      </c>
+      <c r="O33">
+        <v>20.64937467443638</v>
+      </c>
+      <c r="P33">
+        <v>1362</v>
+      </c>
+      <c r="Q33">
+        <v>3.315272159016226</v>
+      </c>
+      <c r="R33">
+        <v>36</v>
+      </c>
+      <c r="S33">
+        <v>554.1</v>
+      </c>
+      <c r="T33">
+        <v>343.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1634,6 +2516,33 @@
       <c r="K34">
         <v>96.34999999999999</v>
       </c>
+      <c r="L34">
+        <v>32118</v>
+      </c>
+      <c r="M34">
+        <v>382315</v>
+      </c>
+      <c r="N34">
+        <v>0.08400925938035389</v>
+      </c>
+      <c r="O34">
+        <v>8.400925938035389</v>
+      </c>
+      <c r="P34">
+        <v>237</v>
+      </c>
+      <c r="Q34">
+        <v>0.6199076677608778</v>
+      </c>
+      <c r="R34">
+        <v>11</v>
+      </c>
+      <c r="S34">
+        <v>2885.16</v>
+      </c>
+      <c r="T34">
+        <v>355.45</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1671,6 +2580,33 @@
       <c r="K35">
         <v>111</v>
       </c>
+      <c r="L35">
+        <v>119643</v>
+      </c>
+      <c r="M35">
+        <v>732807</v>
+      </c>
+      <c r="N35">
+        <v>0.1632667264368381</v>
+      </c>
+      <c r="O35">
+        <v>16.32667264368381</v>
+      </c>
+      <c r="P35">
+        <v>1556</v>
+      </c>
+      <c r="Q35">
+        <v>2.123342162397466</v>
+      </c>
+      <c r="R35">
+        <v>29</v>
+      </c>
+      <c r="S35">
+        <v>458.61</v>
+      </c>
+      <c r="T35">
+        <v>121.55</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1708,6 +2644,33 @@
       <c r="K36">
         <v>60</v>
       </c>
+      <c r="L36">
+        <v>60874</v>
+      </c>
+      <c r="M36">
+        <v>690460</v>
+      </c>
+      <c r="N36">
+        <v>0.08816441213104308</v>
+      </c>
+      <c r="O36">
+        <v>8.816441213104307</v>
+      </c>
+      <c r="P36">
+        <v>1012</v>
+      </c>
+      <c r="Q36">
+        <v>1.465689540306462</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>470.33</v>
+      </c>
+      <c r="T36">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1745,6 +2708,33 @@
       <c r="K37">
         <v>421.43</v>
       </c>
+      <c r="L37">
+        <v>33110</v>
+      </c>
+      <c r="M37">
+        <v>60588</v>
+      </c>
+      <c r="N37">
+        <v>0.546477850399419</v>
+      </c>
+      <c r="O37">
+        <v>54.6477850399419</v>
+      </c>
+      <c r="P37">
+        <v>215</v>
+      </c>
+      <c r="Q37">
+        <v>3.548557470126097</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>130.25</v>
+      </c>
+      <c r="T37">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1782,6 +2772,33 @@
       <c r="K38">
         <v>253.92</v>
       </c>
+      <c r="L38">
+        <v>103916</v>
+      </c>
+      <c r="M38">
+        <v>750006</v>
+      </c>
+      <c r="N38">
+        <v>0.1385535582382008</v>
+      </c>
+      <c r="O38">
+        <v>13.85535582382008</v>
+      </c>
+      <c r="P38">
+        <v>1519</v>
+      </c>
+      <c r="Q38">
+        <v>2.025317130796287</v>
+      </c>
+      <c r="R38">
+        <v>54</v>
+      </c>
+      <c r="S38">
+        <v>725.61</v>
+      </c>
+      <c r="T38">
+        <v>185.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1819,6 +2836,33 @@
       <c r="K39">
         <v>3000</v>
       </c>
+      <c r="L39">
+        <v>9908</v>
+      </c>
+      <c r="M39">
+        <v>27730</v>
+      </c>
+      <c r="N39">
+        <v>0.3573025604038947</v>
+      </c>
+      <c r="O39">
+        <v>35.73025604038947</v>
+      </c>
+      <c r="P39">
+        <v>112</v>
+      </c>
+      <c r="Q39">
+        <v>4.038946988820772</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>342</v>
+      </c>
+      <c r="T39">
+        <v>342</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1856,6 +2900,33 @@
       <c r="K40">
         <v>728.3200000000001</v>
       </c>
+      <c r="L40">
+        <v>54453</v>
+      </c>
+      <c r="M40">
+        <v>422177</v>
+      </c>
+      <c r="N40">
+        <v>0.128981446170682</v>
+      </c>
+      <c r="O40">
+        <v>12.8981446170682</v>
+      </c>
+      <c r="P40">
+        <v>220</v>
+      </c>
+      <c r="Q40">
+        <v>0.5211084450360868</v>
+      </c>
+      <c r="R40">
+        <v>34</v>
+      </c>
+      <c r="S40">
+        <v>401.39</v>
+      </c>
+      <c r="T40">
+        <v>120.76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1893,6 +2964,33 @@
       <c r="K41">
         <v>28.71</v>
       </c>
+      <c r="L41">
+        <v>91970</v>
+      </c>
+      <c r="M41">
+        <v>964742</v>
+      </c>
+      <c r="N41">
+        <v>0.09533118699092608</v>
+      </c>
+      <c r="O41">
+        <v>9.533118699092608</v>
+      </c>
+      <c r="P41">
+        <v>1202</v>
+      </c>
+      <c r="Q41">
+        <v>1.245928963391249</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41">
+        <v>1234.66</v>
+      </c>
+      <c r="T41">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1930,6 +3028,33 @@
       <c r="K42">
         <v>172.46</v>
       </c>
+      <c r="L42">
+        <v>92274</v>
+      </c>
+      <c r="M42">
+        <v>416290</v>
+      </c>
+      <c r="N42">
+        <v>0.2216579788128468</v>
+      </c>
+      <c r="O42">
+        <v>22.16579788128468</v>
+      </c>
+      <c r="P42">
+        <v>1338</v>
+      </c>
+      <c r="Q42">
+        <v>3.214105551418482</v>
+      </c>
+      <c r="R42">
+        <v>36</v>
+      </c>
+      <c r="S42">
+        <v>2844.95</v>
+      </c>
+      <c r="T42">
+        <v>239.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1967,6 +3092,33 @@
       <c r="K43">
         <v>71.29000000000001</v>
       </c>
+      <c r="L43">
+        <v>32631</v>
+      </c>
+      <c r="M43">
+        <v>400832</v>
+      </c>
+      <c r="N43">
+        <v>0.08140817100431104</v>
+      </c>
+      <c r="O43">
+        <v>8.140817100431104</v>
+      </c>
+      <c r="P43">
+        <v>300</v>
+      </c>
+      <c r="Q43">
+        <v>0.7484432380648252</v>
+      </c>
+      <c r="R43">
+        <v>23</v>
+      </c>
+      <c r="S43">
+        <v>1506.73</v>
+      </c>
+      <c r="T43">
+        <v>96.34999999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2004,6 +3156,33 @@
       <c r="K44">
         <v>172.58</v>
       </c>
+      <c r="L44">
+        <v>139794</v>
+      </c>
+      <c r="M44">
+        <v>743237</v>
+      </c>
+      <c r="N44">
+        <v>0.1880880526669151</v>
+      </c>
+      <c r="O44">
+        <v>18.80880526669151</v>
+      </c>
+      <c r="P44">
+        <v>2231</v>
+      </c>
+      <c r="Q44">
+        <v>3.001734305477257</v>
+      </c>
+      <c r="R44">
+        <v>34</v>
+      </c>
+      <c r="S44">
+        <v>785.72</v>
+      </c>
+      <c r="T44">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2041,6 +3220,33 @@
       <c r="K45">
         <v>229.29</v>
       </c>
+      <c r="L45">
+        <v>70205</v>
+      </c>
+      <c r="M45">
+        <v>719183</v>
+      </c>
+      <c r="N45">
+        <v>0.09761771343315957</v>
+      </c>
+      <c r="O45">
+        <v>9.761771343315957</v>
+      </c>
+      <c r="P45">
+        <v>1206</v>
+      </c>
+      <c r="Q45">
+        <v>1.676902818893105</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>174.46</v>
+      </c>
+      <c r="T45">
+        <v>60</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2078,6 +3284,33 @@
       <c r="K46">
         <v>221.38</v>
       </c>
+      <c r="L46">
+        <v>36942</v>
+      </c>
+      <c r="M46">
+        <v>63962</v>
+      </c>
+      <c r="N46">
+        <v>0.5775616772458647</v>
+      </c>
+      <c r="O46">
+        <v>57.75616772458647</v>
+      </c>
+      <c r="P46">
+        <v>248</v>
+      </c>
+      <c r="Q46">
+        <v>3.877302148150464</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>1060.59</v>
+      </c>
+      <c r="T46">
+        <v>421.43</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2115,6 +3348,33 @@
       <c r="K47">
         <v>88.05</v>
       </c>
+      <c r="L47">
+        <v>112686</v>
+      </c>
+      <c r="M47">
+        <v>757320</v>
+      </c>
+      <c r="N47">
+        <v>0.1487957534463635</v>
+      </c>
+      <c r="O47">
+        <v>14.87957534463635</v>
+      </c>
+      <c r="P47">
+        <v>1696</v>
+      </c>
+      <c r="Q47">
+        <v>2.239476047113505</v>
+      </c>
+      <c r="R47">
+        <v>39</v>
+      </c>
+      <c r="S47">
+        <v>2874.18</v>
+      </c>
+      <c r="T47">
+        <v>253.92</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2152,6 +3412,33 @@
       <c r="K48">
         <v>117</v>
       </c>
+      <c r="L48">
+        <v>10490</v>
+      </c>
+      <c r="M48">
+        <v>29821</v>
+      </c>
+      <c r="N48">
+        <v>0.3517655343549848</v>
+      </c>
+      <c r="O48">
+        <v>35.17655343549848</v>
+      </c>
+      <c r="P48">
+        <v>124</v>
+      </c>
+      <c r="Q48">
+        <v>4.158143590087522</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>3000</v>
+      </c>
+      <c r="T48">
+        <v>3000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2189,6 +3476,33 @@
       <c r="K49">
         <v>125.83</v>
       </c>
+      <c r="L49">
+        <v>58250</v>
+      </c>
+      <c r="M49">
+        <v>412265</v>
+      </c>
+      <c r="N49">
+        <v>0.1412926151868337</v>
+      </c>
+      <c r="O49">
+        <v>14.12926151868337</v>
+      </c>
+      <c r="P49">
+        <v>289</v>
+      </c>
+      <c r="Q49">
+        <v>0.7010054212702994</v>
+      </c>
+      <c r="R49">
+        <v>38</v>
+      </c>
+      <c r="S49">
+        <v>1522.93</v>
+      </c>
+      <c r="T49">
+        <v>728.3200000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2226,6 +3540,33 @@
       <c r="K50">
         <v>306.2</v>
       </c>
+      <c r="L50">
+        <v>104841</v>
+      </c>
+      <c r="M50">
+        <v>956835</v>
+      </c>
+      <c r="N50">
+        <v>0.1095706156233833</v>
+      </c>
+      <c r="O50">
+        <v>10.95706156233833</v>
+      </c>
+      <c r="P50">
+        <v>1474</v>
+      </c>
+      <c r="Q50">
+        <v>1.540495487727769</v>
+      </c>
+      <c r="R50">
+        <v>7</v>
+      </c>
+      <c r="S50">
+        <v>193.43</v>
+      </c>
+      <c r="T50">
+        <v>28.71</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2263,6 +3604,33 @@
       <c r="K51">
         <v>814.67</v>
       </c>
+      <c r="L51">
+        <v>99754</v>
+      </c>
+      <c r="M51">
+        <v>451912</v>
+      </c>
+      <c r="N51">
+        <v>0.2207376657402326</v>
+      </c>
+      <c r="O51">
+        <v>22.07376657402326</v>
+      </c>
+      <c r="P51">
+        <v>1575</v>
+      </c>
+      <c r="Q51">
+        <v>3.48519180725451</v>
+      </c>
+      <c r="R51">
+        <v>24</v>
+      </c>
+      <c r="S51">
+        <v>990.01</v>
+      </c>
+      <c r="T51">
+        <v>172.46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -2300,6 +3668,33 @@
       <c r="K52">
         <v>82.76000000000001</v>
       </c>
+      <c r="L52">
+        <v>36857</v>
+      </c>
+      <c r="M52">
+        <v>424327</v>
+      </c>
+      <c r="N52">
+        <v>0.08685989814459132</v>
+      </c>
+      <c r="O52">
+        <v>8.685989814459132</v>
+      </c>
+      <c r="P52">
+        <v>389</v>
+      </c>
+      <c r="Q52">
+        <v>0.9167458116028441</v>
+      </c>
+      <c r="R52">
+        <v>17</v>
+      </c>
+      <c r="S52">
+        <v>527.66</v>
+      </c>
+      <c r="T52">
+        <v>71.29000000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2337,6 +3732,33 @@
       <c r="K53">
         <v>177.95</v>
       </c>
+      <c r="L53">
+        <v>139482</v>
+      </c>
+      <c r="M53">
+        <v>767519</v>
+      </c>
+      <c r="N53">
+        <v>0.1817310060076689</v>
+      </c>
+      <c r="O53">
+        <v>18.17310060076689</v>
+      </c>
+      <c r="P53">
+        <v>1966</v>
+      </c>
+      <c r="Q53">
+        <v>2.561500106186296</v>
+      </c>
+      <c r="R53">
+        <v>24</v>
+      </c>
+      <c r="S53">
+        <v>540.1799999999999</v>
+      </c>
+      <c r="T53">
+        <v>172.58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2374,6 +3796,33 @@
       <c r="K54">
         <v>58.75</v>
       </c>
+      <c r="L54">
+        <v>72110</v>
+      </c>
+      <c r="M54">
+        <v>730712</v>
+      </c>
+      <c r="N54">
+        <v>0.09868457066532368</v>
+      </c>
+      <c r="O54">
+        <v>9.868457066532368</v>
+      </c>
+      <c r="P54">
+        <v>1277</v>
+      </c>
+      <c r="Q54">
+        <v>1.74761054971042</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>325.86</v>
+      </c>
+      <c r="T54">
+        <v>229.29</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -2411,6 +3860,33 @@
       <c r="K55">
         <v>118</v>
       </c>
+      <c r="L55">
+        <v>34774</v>
+      </c>
+      <c r="M55">
+        <v>67813</v>
+      </c>
+      <c r="N55">
+        <v>0.512792532405291</v>
+      </c>
+      <c r="O55">
+        <v>51.2792532405291</v>
+      </c>
+      <c r="P55">
+        <v>244</v>
+      </c>
+      <c r="Q55">
+        <v>3.598130152035745</v>
+      </c>
+      <c r="R55">
+        <v>13</v>
+      </c>
+      <c r="S55">
+        <v>1978.71</v>
+      </c>
+      <c r="T55">
+        <v>221.38</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -2448,6 +3924,33 @@
       <c r="K56">
         <v>139.66</v>
       </c>
+      <c r="L56">
+        <v>108920</v>
+      </c>
+      <c r="M56">
+        <v>761463</v>
+      </c>
+      <c r="N56">
+        <v>0.1430404366331654</v>
+      </c>
+      <c r="O56">
+        <v>14.30404366331654</v>
+      </c>
+      <c r="P56">
+        <v>1701</v>
+      </c>
+      <c r="Q56">
+        <v>2.233857718628482</v>
+      </c>
+      <c r="R56">
+        <v>58</v>
+      </c>
+      <c r="S56">
+        <v>620.54</v>
+      </c>
+      <c r="T56">
+        <v>88.05</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2485,6 +3988,33 @@
       <c r="K57">
         <v>108</v>
       </c>
+      <c r="L57">
+        <v>9484</v>
+      </c>
+      <c r="M57">
+        <v>30695</v>
+      </c>
+      <c r="N57">
+        <v>0.3089754031601238</v>
+      </c>
+      <c r="O57">
+        <v>30.89754031601238</v>
+      </c>
+      <c r="P57">
+        <v>127</v>
+      </c>
+      <c r="Q57">
+        <v>4.137481674539828</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>459</v>
+      </c>
+      <c r="T57">
+        <v>117</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2522,6 +4052,33 @@
       <c r="K58">
         <v>106.47</v>
       </c>
+      <c r="L58">
+        <v>58463</v>
+      </c>
+      <c r="M58">
+        <v>446463</v>
+      </c>
+      <c r="N58">
+        <v>0.1309470213657123</v>
+      </c>
+      <c r="O58">
+        <v>13.09470213657123</v>
+      </c>
+      <c r="P58">
+        <v>284</v>
+      </c>
+      <c r="Q58">
+        <v>0.6361109431240662</v>
+      </c>
+      <c r="R58">
+        <v>12</v>
+      </c>
+      <c r="S58">
+        <v>299.5</v>
+      </c>
+      <c r="T58">
+        <v>125.83</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2559,6 +4116,33 @@
       <c r="K59">
         <v>243.33</v>
       </c>
+      <c r="L59">
+        <v>111326</v>
+      </c>
+      <c r="M59">
+        <v>1006367</v>
+      </c>
+      <c r="N59">
+        <v>0.1106216718155504</v>
+      </c>
+      <c r="O59">
+        <v>11.06216718155504</v>
+      </c>
+      <c r="P59">
+        <v>1590</v>
+      </c>
+      <c r="Q59">
+        <v>1.579940518717327</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>8373.200000000001</v>
+      </c>
+      <c r="T59">
+        <v>306.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2596,6 +4180,33 @@
       <c r="K60">
         <v>226.41</v>
       </c>
+      <c r="L60">
+        <v>99343</v>
+      </c>
+      <c r="M60">
+        <v>429675</v>
+      </c>
+      <c r="N60">
+        <v>0.2312049805085239</v>
+      </c>
+      <c r="O60">
+        <v>23.12049805085239</v>
+      </c>
+      <c r="P60">
+        <v>1584</v>
+      </c>
+      <c r="Q60">
+        <v>3.686507243847094</v>
+      </c>
+      <c r="R60">
+        <v>21</v>
+      </c>
+      <c r="S60">
+        <v>1222.36</v>
+      </c>
+      <c r="T60">
+        <v>814.67</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2633,6 +4244,33 @@
       <c r="K61">
         <v>139.58</v>
       </c>
+      <c r="L61">
+        <v>35139</v>
+      </c>
+      <c r="M61">
+        <v>443167</v>
+      </c>
+      <c r="N61">
+        <v>0.07929065115407961</v>
+      </c>
+      <c r="O61">
+        <v>7.929065115407961</v>
+      </c>
+      <c r="P61">
+        <v>413</v>
+      </c>
+      <c r="Q61">
+        <v>0.9319285957663815</v>
+      </c>
+      <c r="R61">
+        <v>17</v>
+      </c>
+      <c r="S61">
+        <v>598.6900000000001</v>
+      </c>
+      <c r="T61">
+        <v>82.76000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2670,6 +4308,33 @@
       <c r="K62">
         <v>66.08</v>
       </c>
+      <c r="L62">
+        <v>150792</v>
+      </c>
+      <c r="M62">
+        <v>796491</v>
+      </c>
+      <c r="N62">
+        <v>0.1893204066335966</v>
+      </c>
+      <c r="O62">
+        <v>18.93204066335966</v>
+      </c>
+      <c r="P62">
+        <v>2196</v>
+      </c>
+      <c r="Q62">
+        <v>2.757093300489271</v>
+      </c>
+      <c r="R62">
+        <v>41</v>
+      </c>
+      <c r="S62">
+        <v>745.9</v>
+      </c>
+      <c r="T62">
+        <v>177.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2707,6 +4372,33 @@
       <c r="K63">
         <v>134.11</v>
       </c>
+      <c r="L63">
+        <v>70677</v>
+      </c>
+      <c r="M63">
+        <v>722752</v>
+      </c>
+      <c r="N63">
+        <v>0.09778872974408925</v>
+      </c>
+      <c r="O63">
+        <v>9.778872974408925</v>
+      </c>
+      <c r="P63">
+        <v>1308</v>
+      </c>
+      <c r="Q63">
+        <v>1.809749402284601</v>
+      </c>
+      <c r="R63">
+        <v>12</v>
+      </c>
+      <c r="S63">
+        <v>183.27</v>
+      </c>
+      <c r="T63">
+        <v>58.75</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2744,6 +4436,33 @@
       <c r="K64">
         <v>973.5599999999999</v>
       </c>
+      <c r="L64">
+        <v>37471</v>
+      </c>
+      <c r="M64">
+        <v>66215</v>
+      </c>
+      <c r="N64">
+        <v>0.5658989654912029</v>
+      </c>
+      <c r="O64">
+        <v>56.58989654912029</v>
+      </c>
+      <c r="P64">
+        <v>267</v>
+      </c>
+      <c r="Q64">
+        <v>4.032318960960507</v>
+      </c>
+      <c r="R64">
+        <v>7</v>
+      </c>
+      <c r="S64">
+        <v>654.71</v>
+      </c>
+      <c r="T64">
+        <v>118</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2781,6 +4500,33 @@
       <c r="K65">
         <v>106.61</v>
       </c>
+      <c r="L65">
+        <v>119359</v>
+      </c>
+      <c r="M65">
+        <v>737635</v>
+      </c>
+      <c r="N65">
+        <v>0.1618130918408156</v>
+      </c>
+      <c r="O65">
+        <v>16.18130918408156</v>
+      </c>
+      <c r="P65">
+        <v>1905</v>
+      </c>
+      <c r="Q65">
+        <v>2.582578104347001</v>
+      </c>
+      <c r="R65">
+        <v>41</v>
+      </c>
+      <c r="S65">
+        <v>996.59</v>
+      </c>
+      <c r="T65">
+        <v>139.66</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2818,6 +4564,33 @@
       <c r="K66">
         <v>250</v>
       </c>
+      <c r="L66">
+        <v>8777</v>
+      </c>
+      <c r="M66">
+        <v>34410</v>
+      </c>
+      <c r="N66">
+        <v>0.2550712002324906</v>
+      </c>
+      <c r="O66">
+        <v>25.50712002324906</v>
+      </c>
+      <c r="P66">
+        <v>117</v>
+      </c>
+      <c r="Q66">
+        <v>3.400174367916304</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>108</v>
+      </c>
+      <c r="T66">
+        <v>108</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2855,6 +4628,33 @@
       <c r="K67">
         <v>125.81</v>
       </c>
+      <c r="L67">
+        <v>55478</v>
+      </c>
+      <c r="M67">
+        <v>452248</v>
+      </c>
+      <c r="N67">
+        <v>0.1226716314942244</v>
+      </c>
+      <c r="O67">
+        <v>12.26716314942244</v>
+      </c>
+      <c r="P67">
+        <v>253</v>
+      </c>
+      <c r="Q67">
+        <v>0.5594275707134139</v>
+      </c>
+      <c r="R67">
+        <v>15</v>
+      </c>
+      <c r="S67">
+        <v>438.1</v>
+      </c>
+      <c r="T67">
+        <v>106.47</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2892,6 +4692,33 @@
       <c r="K68">
         <v>77.29000000000001</v>
       </c>
+      <c r="L68">
+        <v>113116</v>
+      </c>
+      <c r="M68">
+        <v>1006153</v>
+      </c>
+      <c r="N68">
+        <v>0.1124242535677973</v>
+      </c>
+      <c r="O68">
+        <v>11.24242535677973</v>
+      </c>
+      <c r="P68">
+        <v>1567</v>
+      </c>
+      <c r="Q68">
+        <v>1.557417211895209</v>
+      </c>
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>1267.58</v>
+      </c>
+      <c r="T68">
+        <v>243.33</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2929,6 +4756,33 @@
       <c r="K69">
         <v>528</v>
       </c>
+      <c r="L69">
+        <v>102343</v>
+      </c>
+      <c r="M69">
+        <v>442387</v>
+      </c>
+      <c r="N69">
+        <v>0.2313426931623217</v>
+      </c>
+      <c r="O69">
+        <v>23.13426931623217</v>
+      </c>
+      <c r="P69">
+        <v>1615</v>
+      </c>
+      <c r="Q69">
+        <v>3.650649770449855</v>
+      </c>
+      <c r="R69">
+        <v>29</v>
+      </c>
+      <c r="S69">
+        <v>371.34</v>
+      </c>
+      <c r="T69">
+        <v>226.41</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2966,6 +4820,33 @@
       <c r="K70">
         <v>128.63</v>
       </c>
+      <c r="L70">
+        <v>33003</v>
+      </c>
+      <c r="M70">
+        <v>486086</v>
+      </c>
+      <c r="N70">
+        <v>0.06789539299630107</v>
+      </c>
+      <c r="O70">
+        <v>6.789539299630107</v>
+      </c>
+      <c r="P70">
+        <v>324</v>
+      </c>
+      <c r="Q70">
+        <v>0.6665487177166181</v>
+      </c>
+      <c r="R70">
+        <v>19</v>
+      </c>
+      <c r="S70">
+        <v>670.8</v>
+      </c>
+      <c r="T70">
+        <v>139.58</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3003,6 +4884,33 @@
       <c r="K71">
         <v>224.32</v>
       </c>
+      <c r="L71">
+        <v>136144</v>
+      </c>
+      <c r="M71">
+        <v>842860</v>
+      </c>
+      <c r="N71">
+        <v>0.1615262321144674</v>
+      </c>
+      <c r="O71">
+        <v>16.15262321144674</v>
+      </c>
+      <c r="P71">
+        <v>1792</v>
+      </c>
+      <c r="Q71">
+        <v>2.126094487815295</v>
+      </c>
+      <c r="R71">
+        <v>26</v>
+      </c>
+      <c r="S71">
+        <v>395.78</v>
+      </c>
+      <c r="T71">
+        <v>66.08</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -3040,6 +4948,33 @@
       <c r="K72">
         <v>261.85</v>
       </c>
+      <c r="L72">
+        <v>64216</v>
+      </c>
+      <c r="M72">
+        <v>770616</v>
+      </c>
+      <c r="N72">
+        <v>0.083330738006997</v>
+      </c>
+      <c r="O72">
+        <v>8.333073800699701</v>
+      </c>
+      <c r="P72">
+        <v>1270</v>
+      </c>
+      <c r="Q72">
+        <v>1.648032223571792</v>
+      </c>
+      <c r="R72">
+        <v>9</v>
+      </c>
+      <c r="S72">
+        <v>534.72</v>
+      </c>
+      <c r="T72">
+        <v>134.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -3077,6 +5012,33 @@
       <c r="K73">
         <v>1129.94</v>
       </c>
+      <c r="L73">
+        <v>44608</v>
+      </c>
+      <c r="M73">
+        <v>77502</v>
+      </c>
+      <c r="N73">
+        <v>0.5755722432969472</v>
+      </c>
+      <c r="O73">
+        <v>57.55722432969472</v>
+      </c>
+      <c r="P73">
+        <v>340</v>
+      </c>
+      <c r="Q73">
+        <v>4.386983561714537</v>
+      </c>
+      <c r="R73">
+        <v>9</v>
+      </c>
+      <c r="S73">
+        <v>15184.18</v>
+      </c>
+      <c r="T73">
+        <v>973.5599999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -3114,6 +5076,33 @@
       <c r="K74">
         <v>272.71</v>
       </c>
+      <c r="L74">
+        <v>112709</v>
+      </c>
+      <c r="M74">
+        <v>795572</v>
+      </c>
+      <c r="N74">
+        <v>0.1416703956398667</v>
+      </c>
+      <c r="O74">
+        <v>14.16703956398667</v>
+      </c>
+      <c r="P74">
+        <v>1670</v>
+      </c>
+      <c r="Q74">
+        <v>2.099118621570392</v>
+      </c>
+      <c r="R74">
+        <v>56</v>
+      </c>
+      <c r="S74">
+        <v>774.88</v>
+      </c>
+      <c r="T74">
+        <v>106.61</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -3151,6 +5140,33 @@
       <c r="K75">
         <v>38.5</v>
       </c>
+      <c r="L75">
+        <v>8591</v>
+      </c>
+      <c r="M75">
+        <v>37833</v>
+      </c>
+      <c r="N75">
+        <v>0.2270768905452911</v>
+      </c>
+      <c r="O75">
+        <v>22.70768905452912</v>
+      </c>
+      <c r="P75">
+        <v>113</v>
+      </c>
+      <c r="Q75">
+        <v>2.986810456479793</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>250</v>
+      </c>
+      <c r="T75">
+        <v>250</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -3188,6 +5204,33 @@
       <c r="K76">
         <v>168.89</v>
       </c>
+      <c r="L76">
+        <v>60158</v>
+      </c>
+      <c r="M76">
+        <v>504620</v>
+      </c>
+      <c r="N76">
+        <v>0.1192144584043439</v>
+      </c>
+      <c r="O76">
+        <v>11.92144584043439</v>
+      </c>
+      <c r="P76">
+        <v>299</v>
+      </c>
+      <c r="Q76">
+        <v>0.5925250683682771</v>
+      </c>
+      <c r="R76">
+        <v>26</v>
+      </c>
+      <c r="S76">
+        <v>581.86</v>
+      </c>
+      <c r="T76">
+        <v>125.81</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -3225,6 +5268,33 @@
       <c r="K77">
         <v>132.81</v>
       </c>
+      <c r="L77">
+        <v>126935</v>
+      </c>
+      <c r="M77">
+        <v>1138207</v>
+      </c>
+      <c r="N77">
+        <v>0.1115218936450048</v>
+      </c>
+      <c r="O77">
+        <v>11.15218936450048</v>
+      </c>
+      <c r="P77">
+        <v>1717</v>
+      </c>
+      <c r="Q77">
+        <v>1.508512950632003</v>
+      </c>
+      <c r="R77">
+        <v>28</v>
+      </c>
+      <c r="S77">
+        <v>646.54</v>
+      </c>
+      <c r="T77">
+        <v>77.29000000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -3262,6 +5332,33 @@
       <c r="K78">
         <v>390.65</v>
       </c>
+      <c r="L78">
+        <v>110131</v>
+      </c>
+      <c r="M78">
+        <v>485357</v>
+      </c>
+      <c r="N78">
+        <v>0.2269072043876981</v>
+      </c>
+      <c r="O78">
+        <v>22.69072043876981</v>
+      </c>
+      <c r="P78">
+        <v>1677</v>
+      </c>
+      <c r="Q78">
+        <v>3.455188654948831</v>
+      </c>
+      <c r="R78">
+        <v>22</v>
+      </c>
+      <c r="S78">
+        <v>1540.84</v>
+      </c>
+      <c r="T78">
+        <v>528</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -3299,6 +5396,33 @@
       <c r="K79">
         <v>155</v>
       </c>
+      <c r="L79">
+        <v>35992</v>
+      </c>
+      <c r="M79">
+        <v>521577</v>
+      </c>
+      <c r="N79">
+        <v>0.06900611031544719</v>
+      </c>
+      <c r="O79">
+        <v>6.900611031544719</v>
+      </c>
+      <c r="P79">
+        <v>371</v>
+      </c>
+      <c r="Q79">
+        <v>0.7113043711666733</v>
+      </c>
+      <c r="R79">
+        <v>19</v>
+      </c>
+      <c r="S79">
+        <v>1236.89</v>
+      </c>
+      <c r="T79">
+        <v>128.63</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -3336,6 +5460,33 @@
       <c r="K80">
         <v>698.17</v>
       </c>
+      <c r="L80">
+        <v>140366</v>
+      </c>
+      <c r="M80">
+        <v>861267</v>
+      </c>
+      <c r="N80">
+        <v>0.16297617347466</v>
+      </c>
+      <c r="O80">
+        <v>16.297617347466</v>
+      </c>
+      <c r="P80">
+        <v>1967</v>
+      </c>
+      <c r="Q80">
+        <v>2.283844614968413</v>
+      </c>
+      <c r="R80">
+        <v>25</v>
+      </c>
+      <c r="S80">
+        <v>553.38</v>
+      </c>
+      <c r="T80">
+        <v>224.32</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -3373,6 +5524,33 @@
       <c r="K81">
         <v>709.5</v>
       </c>
+      <c r="L81">
+        <v>66157</v>
+      </c>
+      <c r="M81">
+        <v>760643</v>
+      </c>
+      <c r="N81">
+        <v>0.08697509869938985</v>
+      </c>
+      <c r="O81">
+        <v>8.697509869938985</v>
+      </c>
+      <c r="P81">
+        <v>1280</v>
+      </c>
+      <c r="Q81">
+        <v>1.682786800115166</v>
+      </c>
+      <c r="R81">
+        <v>13</v>
+      </c>
+      <c r="S81">
+        <v>1032.52</v>
+      </c>
+      <c r="T81">
+        <v>261.85</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -3410,6 +5588,33 @@
       <c r="K82">
         <v>2630.67</v>
       </c>
+      <c r="L82">
+        <v>39215</v>
+      </c>
+      <c r="M82">
+        <v>80767</v>
+      </c>
+      <c r="N82">
+        <v>0.4855324575631136</v>
+      </c>
+      <c r="O82">
+        <v>48.55324575631136</v>
+      </c>
+      <c r="P82">
+        <v>280</v>
+      </c>
+      <c r="Q82">
+        <v>3.4667624153429</v>
+      </c>
+      <c r="R82">
+        <v>18</v>
+      </c>
+      <c r="S82">
+        <v>3945.56</v>
+      </c>
+      <c r="T82">
+        <v>1129.94</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -3447,6 +5652,33 @@
       <c r="K83">
         <v>152.95</v>
       </c>
+      <c r="L83">
+        <v>118571</v>
+      </c>
+      <c r="M83">
+        <v>807430</v>
+      </c>
+      <c r="N83">
+        <v>0.1468498817234931</v>
+      </c>
+      <c r="O83">
+        <v>14.68498817234931</v>
+      </c>
+      <c r="P83">
+        <v>1803</v>
+      </c>
+      <c r="Q83">
+        <v>2.233010911162578</v>
+      </c>
+      <c r="R83">
+        <v>59</v>
+      </c>
+      <c r="S83">
+        <v>2157.36</v>
+      </c>
+      <c r="T83">
+        <v>272.71</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -3484,6 +5716,33 @@
       <c r="K84">
         <v>75.25</v>
       </c>
+      <c r="L84">
+        <v>7449</v>
+      </c>
+      <c r="M84">
+        <v>38708</v>
+      </c>
+      <c r="N84">
+        <v>0.1924408391030278</v>
+      </c>
+      <c r="O84">
+        <v>19.24408391030278</v>
+      </c>
+      <c r="P84">
+        <v>102</v>
+      </c>
+      <c r="Q84">
+        <v>2.635114188281492</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>270</v>
+      </c>
+      <c r="T84">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -3521,6 +5780,33 @@
       <c r="K85">
         <v>111.42</v>
       </c>
+      <c r="L85">
+        <v>55163</v>
+      </c>
+      <c r="M85">
+        <v>517912</v>
+      </c>
+      <c r="N85">
+        <v>0.1065103724184804</v>
+      </c>
+      <c r="O85">
+        <v>10.65103724184804</v>
+      </c>
+      <c r="P85">
+        <v>357</v>
+      </c>
+      <c r="Q85">
+        <v>0.6893062914163023</v>
+      </c>
+      <c r="R85">
+        <v>18</v>
+      </c>
+      <c r="S85">
+        <v>874.8</v>
+      </c>
+      <c r="T85">
+        <v>168.89</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -3558,6 +5844,33 @@
       <c r="K86">
         <v>150.38</v>
       </c>
+      <c r="L86">
+        <v>128808</v>
+      </c>
+      <c r="M86">
+        <v>1177526</v>
+      </c>
+      <c r="N86">
+        <v>0.1093886674264517</v>
+      </c>
+      <c r="O86">
+        <v>10.93886674264517</v>
+      </c>
+      <c r="P86">
+        <v>1574</v>
+      </c>
+      <c r="Q86">
+        <v>1.336700845671348</v>
+      </c>
+      <c r="R86">
+        <v>16</v>
+      </c>
+      <c r="S86">
+        <v>1131.65</v>
+      </c>
+      <c r="T86">
+        <v>132.81</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3595,6 +5908,33 @@
       <c r="K87">
         <v>392.16</v>
       </c>
+      <c r="L87">
+        <v>116287</v>
+      </c>
+      <c r="M87">
+        <v>509763</v>
+      </c>
+      <c r="N87">
+        <v>0.2281197340725004</v>
+      </c>
+      <c r="O87">
+        <v>22.81197340725004</v>
+      </c>
+      <c r="P87">
+        <v>1638</v>
+      </c>
+      <c r="Q87">
+        <v>3.213257925741963</v>
+      </c>
+      <c r="R87">
+        <v>48</v>
+      </c>
+      <c r="S87">
+        <v>723.92</v>
+      </c>
+      <c r="T87">
+        <v>390.65</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3632,6 +5972,33 @@
       <c r="K88">
         <v>150.25</v>
       </c>
+      <c r="L88">
+        <v>41332</v>
+      </c>
+      <c r="M88">
+        <v>571803</v>
+      </c>
+      <c r="N88">
+        <v>0.07228363614741441</v>
+      </c>
+      <c r="O88">
+        <v>7.228363614741442</v>
+      </c>
+      <c r="P88">
+        <v>458</v>
+      </c>
+      <c r="Q88">
+        <v>0.8009751610257378</v>
+      </c>
+      <c r="R88">
+        <v>30</v>
+      </c>
+      <c r="S88">
+        <v>1121.93</v>
+      </c>
+      <c r="T88">
+        <v>155</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3669,6 +6036,33 @@
       <c r="K89">
         <v>195.62</v>
       </c>
+      <c r="L89">
+        <v>151624</v>
+      </c>
+      <c r="M89">
+        <v>882463</v>
+      </c>
+      <c r="N89">
+        <v>0.17181910176404</v>
+      </c>
+      <c r="O89">
+        <v>17.181910176404</v>
+      </c>
+      <c r="P89">
+        <v>1873</v>
+      </c>
+      <c r="Q89">
+        <v>2.122468590751114</v>
+      </c>
+      <c r="R89">
+        <v>29</v>
+      </c>
+      <c r="S89">
+        <v>2095.41</v>
+      </c>
+      <c r="T89">
+        <v>698.17</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3706,6 +6100,33 @@
       <c r="K90">
         <v>400.55</v>
       </c>
+      <c r="L90">
+        <v>65541</v>
+      </c>
+      <c r="M90">
+        <v>740808</v>
+      </c>
+      <c r="N90">
+        <v>0.0884723167136424</v>
+      </c>
+      <c r="O90">
+        <v>8.84723167136424</v>
+      </c>
+      <c r="P90">
+        <v>1289</v>
+      </c>
+      <c r="Q90">
+        <v>1.739992008725608</v>
+      </c>
+      <c r="R90">
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <v>1830.55</v>
+      </c>
+      <c r="T90">
+        <v>709.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3743,6 +6164,33 @@
       <c r="K91">
         <v>285.07</v>
       </c>
+      <c r="L91">
+        <v>39910</v>
+      </c>
+      <c r="M91">
+        <v>87970</v>
+      </c>
+      <c r="N91">
+        <v>0.4536773900193248</v>
+      </c>
+      <c r="O91">
+        <v>45.36773900193248</v>
+      </c>
+      <c r="P91">
+        <v>280</v>
+      </c>
+      <c r="Q91">
+        <v>3.182903262475844</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>38065.23</v>
+      </c>
+      <c r="T91">
+        <v>2630.67</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3780,6 +6228,33 @@
       <c r="K92">
         <v>243.68</v>
       </c>
+      <c r="L92">
+        <v>118336</v>
+      </c>
+      <c r="M92">
+        <v>820417</v>
+      </c>
+      <c r="N92">
+        <v>0.1442388443925467</v>
+      </c>
+      <c r="O92">
+        <v>14.42388443925467</v>
+      </c>
+      <c r="P92">
+        <v>1641</v>
+      </c>
+      <c r="Q92">
+        <v>2.000202336129066</v>
+      </c>
+      <c r="R92">
+        <v>61</v>
+      </c>
+      <c r="S92">
+        <v>1317.61</v>
+      </c>
+      <c r="T92">
+        <v>152.95</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3817,6 +6292,33 @@
       <c r="K93">
         <v>95.92</v>
       </c>
+      <c r="L93">
+        <v>75676</v>
+      </c>
+      <c r="M93">
+        <v>560648</v>
+      </c>
+      <c r="N93">
+        <v>0.1349795236940112</v>
+      </c>
+      <c r="O93">
+        <v>13.49795236940112</v>
+      </c>
+      <c r="P93">
+        <v>408</v>
+      </c>
+      <c r="Q93">
+        <v>0.7277293417616757</v>
+      </c>
+      <c r="R93">
+        <v>24</v>
+      </c>
+      <c r="S93">
+        <v>544.37</v>
+      </c>
+      <c r="T93">
+        <v>111.42</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3854,6 +6356,33 @@
       <c r="K94">
         <v>171</v>
       </c>
+      <c r="L94">
+        <v>156615</v>
+      </c>
+      <c r="M94">
+        <v>1209224</v>
+      </c>
+      <c r="N94">
+        <v>0.129516946405298</v>
+      </c>
+      <c r="O94">
+        <v>12.9516946405298</v>
+      </c>
+      <c r="P94">
+        <v>1612</v>
+      </c>
+      <c r="Q94">
+        <v>1.333086342976984</v>
+      </c>
+      <c r="R94">
+        <v>29</v>
+      </c>
+      <c r="S94">
+        <v>1458.04</v>
+      </c>
+      <c r="T94">
+        <v>150.38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -3891,6 +6420,33 @@
       <c r="K95">
         <v>213.08</v>
       </c>
+      <c r="L95">
+        <v>131982</v>
+      </c>
+      <c r="M95">
+        <v>531792</v>
+      </c>
+      <c r="N95">
+        <v>0.248183500315913</v>
+      </c>
+      <c r="O95">
+        <v>24.8183500315913</v>
+      </c>
+      <c r="P95">
+        <v>1674</v>
+      </c>
+      <c r="Q95">
+        <v>3.147847278635256</v>
+      </c>
+      <c r="R95">
+        <v>44</v>
+      </c>
+      <c r="S95">
+        <v>1175.58</v>
+      </c>
+      <c r="T95">
+        <v>392.16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3928,6 +6484,33 @@
       <c r="K96">
         <v>125.1</v>
       </c>
+      <c r="L96">
+        <v>59208</v>
+      </c>
+      <c r="M96">
+        <v>587514</v>
+      </c>
+      <c r="N96">
+        <v>0.1007771729694952</v>
+      </c>
+      <c r="O96">
+        <v>10.07771729694952</v>
+      </c>
+      <c r="P96">
+        <v>597</v>
+      </c>
+      <c r="Q96">
+        <v>1.016145998223021</v>
+      </c>
+      <c r="R96">
+        <v>24</v>
+      </c>
+      <c r="S96">
+        <v>1279.28</v>
+      </c>
+      <c r="T96">
+        <v>150.25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3965,6 +6548,33 @@
       <c r="K97">
         <v>505.42</v>
       </c>
+      <c r="L97">
+        <v>144641</v>
+      </c>
+      <c r="M97">
+        <v>935906</v>
+      </c>
+      <c r="N97">
+        <v>0.1545465036018575</v>
+      </c>
+      <c r="O97">
+        <v>15.45465036018575</v>
+      </c>
+      <c r="P97">
+        <v>1722</v>
+      </c>
+      <c r="Q97">
+        <v>1.839928368874652</v>
+      </c>
+      <c r="R97">
+        <v>32</v>
+      </c>
+      <c r="S97">
+        <v>750.78</v>
+      </c>
+      <c r="T97">
+        <v>195.62</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -4002,6 +6612,33 @@
       <c r="K98">
         <v>86</v>
       </c>
+      <c r="L98">
+        <v>69252</v>
+      </c>
+      <c r="M98">
+        <v>720505</v>
+      </c>
+      <c r="N98">
+        <v>0.09611591869591467</v>
+      </c>
+      <c r="O98">
+        <v>9.611591869591466</v>
+      </c>
+      <c r="P98">
+        <v>1341</v>
+      </c>
+      <c r="Q98">
+        <v>1.861194578802368</v>
+      </c>
+      <c r="R98">
+        <v>11</v>
+      </c>
+      <c r="S98">
+        <v>1187.18</v>
+      </c>
+      <c r="T98">
+        <v>400.55</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -4039,6 +6676,33 @@
       <c r="K99">
         <v>775.67</v>
       </c>
+      <c r="L99">
+        <v>43382</v>
+      </c>
+      <c r="M99">
+        <v>92452</v>
+      </c>
+      <c r="N99">
+        <v>0.4692380911175529</v>
+      </c>
+      <c r="O99">
+        <v>46.92380911175529</v>
+      </c>
+      <c r="P99">
+        <v>283</v>
+      </c>
+      <c r="Q99">
+        <v>3.061047895123956</v>
+      </c>
+      <c r="R99">
+        <v>15</v>
+      </c>
+      <c r="S99">
+        <v>2957.33</v>
+      </c>
+      <c r="T99">
+        <v>285.07</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -4076,6 +6740,33 @@
       <c r="K100">
         <v>79.73</v>
       </c>
+      <c r="L100">
+        <v>125189</v>
+      </c>
+      <c r="M100">
+        <v>801699</v>
+      </c>
+      <c r="N100">
+        <v>0.1561546166329258</v>
+      </c>
+      <c r="O100">
+        <v>15.61546166329258</v>
+      </c>
+      <c r="P100">
+        <v>1857</v>
+      </c>
+      <c r="Q100">
+        <v>2.316330692691397</v>
+      </c>
+      <c r="R100">
+        <v>56</v>
+      </c>
+      <c r="S100">
+        <v>1887.81</v>
+      </c>
+      <c r="T100">
+        <v>243.68</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -4113,6 +6804,33 @@
       <c r="K101">
         <v>2500</v>
       </c>
+      <c r="L101">
+        <v>9342</v>
+      </c>
+      <c r="M101">
+        <v>36811</v>
+      </c>
+      <c r="N101">
+        <v>0.2537828366520877</v>
+      </c>
+      <c r="O101">
+        <v>25.37828366520877</v>
+      </c>
+      <c r="P101">
+        <v>117</v>
+      </c>
+      <c r="Q101">
+        <v>3.178397761538671</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>627.55</v>
+      </c>
+      <c r="T101">
+        <v>75.25</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -4150,6 +6868,33 @@
       <c r="K102">
         <v>159.42</v>
       </c>
+      <c r="L102">
+        <v>71210</v>
+      </c>
+      <c r="M102">
+        <v>534760</v>
+      </c>
+      <c r="N102">
+        <v>0.1331625402049517</v>
+      </c>
+      <c r="O102">
+        <v>13.31625402049517</v>
+      </c>
+      <c r="P102">
+        <v>372</v>
+      </c>
+      <c r="Q102">
+        <v>0.6956391652330017</v>
+      </c>
+      <c r="R102">
+        <v>24</v>
+      </c>
+      <c r="S102">
+        <v>420.68</v>
+      </c>
+      <c r="T102">
+        <v>95.92</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -4187,6 +6932,33 @@
       <c r="K103">
         <v>166.78</v>
       </c>
+      <c r="L103">
+        <v>169434</v>
+      </c>
+      <c r="M103">
+        <v>1242408</v>
+      </c>
+      <c r="N103">
+        <v>0.1363754901771399</v>
+      </c>
+      <c r="O103">
+        <v>13.63754901771399</v>
+      </c>
+      <c r="P103">
+        <v>1711</v>
+      </c>
+      <c r="Q103">
+        <v>1.377164345368027</v>
+      </c>
+      <c r="R103">
+        <v>27</v>
+      </c>
+      <c r="S103">
+        <v>1029.1</v>
+      </c>
+      <c r="T103">
+        <v>171</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -4224,6 +6996,33 @@
       <c r="K104">
         <v>279.11</v>
       </c>
+      <c r="L104">
+        <v>135655</v>
+      </c>
+      <c r="M104">
+        <v>512675</v>
+      </c>
+      <c r="N104">
+        <v>0.2646023309113961</v>
+      </c>
+      <c r="O104">
+        <v>26.46023309113961</v>
+      </c>
+      <c r="P104">
+        <v>1714</v>
+      </c>
+      <c r="Q104">
+        <v>3.343248646803531</v>
+      </c>
+      <c r="R104">
+        <v>36</v>
+      </c>
+      <c r="S104">
+        <v>811.36</v>
+      </c>
+      <c r="T104">
+        <v>213.08</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -4261,6 +7060,33 @@
       <c r="K105">
         <v>171.92</v>
       </c>
+      <c r="L105">
+        <v>60419</v>
+      </c>
+      <c r="M105">
+        <v>599174</v>
+      </c>
+      <c r="N105">
+        <v>0.100837152479914</v>
+      </c>
+      <c r="O105">
+        <v>10.0837152479914</v>
+      </c>
+      <c r="P105">
+        <v>522</v>
+      </c>
+      <c r="Q105">
+        <v>0.8711993511066902</v>
+      </c>
+      <c r="R105">
+        <v>31</v>
+      </c>
+      <c r="S105">
+        <v>1167.75</v>
+      </c>
+      <c r="T105">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -4298,6 +7124,33 @@
       <c r="K106">
         <v>1029.85</v>
       </c>
+      <c r="L106">
+        <v>152864</v>
+      </c>
+      <c r="M106">
+        <v>936492</v>
+      </c>
+      <c r="N106">
+        <v>0.1632304387010247</v>
+      </c>
+      <c r="O106">
+        <v>16.32304387010247</v>
+      </c>
+      <c r="P106">
+        <v>1865</v>
+      </c>
+      <c r="Q106">
+        <v>1.991474566787543</v>
+      </c>
+      <c r="R106">
+        <v>40</v>
+      </c>
+      <c r="S106">
+        <v>2283.6</v>
+      </c>
+      <c r="T106">
+        <v>505.42</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -4335,6 +7188,33 @@
       <c r="K107">
         <v>248.6</v>
       </c>
+      <c r="L107">
+        <v>69713</v>
+      </c>
+      <c r="M107">
+        <v>484196.5243766789</v>
+      </c>
+      <c r="N107">
+        <v>0.1439766633801093</v>
+      </c>
+      <c r="O107">
+        <v>14.39766633801093</v>
+      </c>
+      <c r="P107">
+        <v>1354</v>
+      </c>
+      <c r="Q107">
+        <v>2.796385211031917</v>
+      </c>
+      <c r="R107">
+        <v>4</v>
+      </c>
+      <c r="S107">
+        <v>257.25</v>
+      </c>
+      <c r="T107">
+        <v>86</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -4372,6 +7252,33 @@
       <c r="K108">
         <v>608.67</v>
       </c>
+      <c r="L108">
+        <v>44236</v>
+      </c>
+      <c r="M108">
+        <v>82437.57906980341</v>
+      </c>
+      <c r="N108">
+        <v>0.5365999402110474</v>
+      </c>
+      <c r="O108">
+        <v>53.65999402110474</v>
+      </c>
+      <c r="P108">
+        <v>281</v>
+      </c>
+      <c r="Q108">
+        <v>3.408639641904881</v>
+      </c>
+      <c r="R108">
+        <v>10</v>
+      </c>
+      <c r="S108">
+        <v>6044.1</v>
+      </c>
+      <c r="T108">
+        <v>775.67</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -4409,6 +7316,33 @@
       <c r="K109">
         <v>131.38</v>
       </c>
+      <c r="L109">
+        <v>114515</v>
+      </c>
+      <c r="M109">
+        <v>621238.5245496402</v>
+      </c>
+      <c r="N109">
+        <v>0.1843333848025866</v>
+      </c>
+      <c r="O109">
+        <v>18.43333848025866</v>
+      </c>
+      <c r="P109">
+        <v>1547</v>
+      </c>
+      <c r="Q109">
+        <v>2.490186842680885</v>
+      </c>
+      <c r="R109">
+        <v>44</v>
+      </c>
+      <c r="S109">
+        <v>905.6799999999999</v>
+      </c>
+      <c r="T109">
+        <v>79.73</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -4446,6 +7380,33 @@
       <c r="K110">
         <v>113</v>
       </c>
+      <c r="L110">
+        <v>10445</v>
+      </c>
+      <c r="M110">
+        <v>40632.86754687499</v>
+      </c>
+      <c r="N110">
+        <v>0.2570579097808052</v>
+      </c>
+      <c r="O110">
+        <v>25.70579097808052</v>
+      </c>
+      <c r="P110">
+        <v>124</v>
+      </c>
+      <c r="Q110">
+        <v>3.051716688637611</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>2500</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -4483,6 +7444,33 @@
       <c r="K111">
         <v>240.36</v>
       </c>
+      <c r="L111">
+        <v>66685</v>
+      </c>
+      <c r="M111">
+        <v>440347.6160383089</v>
+      </c>
+      <c r="N111">
+        <v>0.1514371772917663</v>
+      </c>
+      <c r="O111">
+        <v>15.14371772917663</v>
+      </c>
+      <c r="P111">
+        <v>396</v>
+      </c>
+      <c r="Q111">
+        <v>0.8992895284927561</v>
+      </c>
+      <c r="R111">
+        <v>12</v>
+      </c>
+      <c r="S111">
+        <v>495.92</v>
+      </c>
+      <c r="T111">
+        <v>159.42</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -4520,6 +7508,33 @@
       <c r="K112">
         <v>234.36</v>
       </c>
+      <c r="L112">
+        <v>191577</v>
+      </c>
+      <c r="M112">
+        <v>1073309.106965711</v>
+      </c>
+      <c r="N112">
+        <v>0.178491916966582</v>
+      </c>
+      <c r="O112">
+        <v>17.8491916966582</v>
+      </c>
+      <c r="P112">
+        <v>1850</v>
+      </c>
+      <c r="Q112">
+        <v>1.723641389040316</v>
+      </c>
+      <c r="R112">
+        <v>19</v>
+      </c>
+      <c r="S112">
+        <v>1912.05</v>
+      </c>
+      <c r="T112">
+        <v>166.78</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -4557,6 +7572,33 @@
       <c r="K113">
         <v>2144.12</v>
       </c>
+      <c r="L113">
+        <v>136391</v>
+      </c>
+      <c r="M113">
+        <v>378842.5382236752</v>
+      </c>
+      <c r="N113">
+        <v>0.3600202887445348</v>
+      </c>
+      <c r="O113">
+        <v>36.00202887445348</v>
+      </c>
+      <c r="P113">
+        <v>1845</v>
+      </c>
+      <c r="Q113">
+        <v>4.870097240533955</v>
+      </c>
+      <c r="R113">
+        <v>37</v>
+      </c>
+      <c r="S113">
+        <v>1168.14</v>
+      </c>
+      <c r="T113">
+        <v>279.11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -4594,6 +7636,33 @@
       <c r="K114">
         <v>193.64</v>
       </c>
+      <c r="L114">
+        <v>37225</v>
+      </c>
+      <c r="M114">
+        <v>805457.6108478692</v>
+      </c>
+      <c r="N114">
+        <v>0.04621596406645771</v>
+      </c>
+      <c r="O114">
+        <v>4.621596406645772</v>
+      </c>
+      <c r="P114">
+        <v>202</v>
+      </c>
+      <c r="Q114">
+        <v>0.2507891132686221</v>
+      </c>
+      <c r="R114">
+        <v>13</v>
+      </c>
+      <c r="S114">
+        <v>1441.77</v>
+      </c>
+      <c r="T114">
+        <v>171.92</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -4631,6 +7700,33 @@
       <c r="K115">
         <v>414.07</v>
       </c>
+      <c r="L115">
+        <v>187786</v>
+      </c>
+      <c r="M115">
+        <v>597678.2730387525</v>
+      </c>
+      <c r="N115">
+        <v>0.3141924484643668</v>
+      </c>
+      <c r="O115">
+        <v>31.41924484643668</v>
+      </c>
+      <c r="P115">
+        <v>2272</v>
+      </c>
+      <c r="Q115">
+        <v>3.801376262932494</v>
+      </c>
+      <c r="R115">
+        <v>29</v>
+      </c>
+      <c r="S115">
+        <v>5396.31</v>
+      </c>
+      <c r="T115">
+        <v>1029.85</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -4668,6 +7764,33 @@
       <c r="K116">
         <v>481.71</v>
       </c>
+      <c r="L116">
+        <v>64470</v>
+      </c>
+      <c r="M116">
+        <v>488832.1411069619</v>
+      </c>
+      <c r="N116">
+        <v>0.1318857631865357</v>
+      </c>
+      <c r="O116">
+        <v>13.18857631865357</v>
+      </c>
+      <c r="P116">
+        <v>1326</v>
+      </c>
+      <c r="Q116">
+        <v>2.712587590900363</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>883</v>
+      </c>
+      <c r="T116">
+        <v>248.6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -4705,6 +7828,33 @@
       <c r="K117">
         <v>912.27</v>
       </c>
+      <c r="L117">
+        <v>45273</v>
+      </c>
+      <c r="M117">
+        <v>90346.84212420975</v>
+      </c>
+      <c r="N117">
+        <v>0.5011021850410469</v>
+      </c>
+      <c r="O117">
+        <v>50.11021850410469</v>
+      </c>
+      <c r="P117">
+        <v>287</v>
+      </c>
+      <c r="Q117">
+        <v>3.176646723362278</v>
+      </c>
+      <c r="R117">
+        <v>12</v>
+      </c>
+      <c r="S117">
+        <v>4102.92</v>
+      </c>
+      <c r="T117">
+        <v>608.67</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -4742,6 +7892,33 @@
       <c r="K118">
         <v>147.83</v>
       </c>
+      <c r="L118">
+        <v>113414</v>
+      </c>
+      <c r="M118">
+        <v>612371.4288129468</v>
+      </c>
+      <c r="N118">
+        <v>0.1852045909781384</v>
+      </c>
+      <c r="O118">
+        <v>18.52045909781384</v>
+      </c>
+      <c r="P118">
+        <v>1508</v>
+      </c>
+      <c r="Q118">
+        <v>2.462557737096238</v>
+      </c>
+      <c r="R118">
+        <v>32</v>
+      </c>
+      <c r="S118">
+        <v>1688.81</v>
+      </c>
+      <c r="T118">
+        <v>131.38</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -4779,6 +7956,33 @@
       <c r="K119">
         <v>203.92</v>
       </c>
+      <c r="L119">
+        <v>61902</v>
+      </c>
+      <c r="M119">
+        <v>485287.3156286019</v>
+      </c>
+      <c r="N119">
+        <v>0.1275574242442689</v>
+      </c>
+      <c r="O119">
+        <v>12.75574242442689</v>
+      </c>
+      <c r="P119">
+        <v>423</v>
+      </c>
+      <c r="Q119">
+        <v>0.8716485809073333</v>
+      </c>
+      <c r="R119">
+        <v>16</v>
+      </c>
+      <c r="S119">
+        <v>709.4400000000001</v>
+      </c>
+      <c r="T119">
+        <v>240.36</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -4816,6 +8020,33 @@
       <c r="K120">
         <v>303.4</v>
       </c>
+      <c r="L120">
+        <v>208261</v>
+      </c>
+      <c r="M120">
+        <v>1089836.256983861</v>
+      </c>
+      <c r="N120">
+        <v>0.1910938442958079</v>
+      </c>
+      <c r="O120">
+        <v>19.10938442958079</v>
+      </c>
+      <c r="P120">
+        <v>1938</v>
+      </c>
+      <c r="Q120">
+        <v>1.778248785155529</v>
+      </c>
+      <c r="R120">
+        <v>33</v>
+      </c>
+      <c r="S120">
+        <v>1344.3</v>
+      </c>
+      <c r="T120">
+        <v>234.36</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -4853,6 +8084,33 @@
       <c r="K121">
         <v>367.6</v>
       </c>
+      <c r="L121">
+        <v>144644</v>
+      </c>
+      <c r="M121">
+        <v>375698.458708931</v>
+      </c>
+      <c r="N121">
+        <v>0.3850002485958071</v>
+      </c>
+      <c r="O121">
+        <v>38.50002485958071</v>
+      </c>
+      <c r="P121">
+        <v>1991</v>
+      </c>
+      <c r="Q121">
+        <v>5.299462784175298</v>
+      </c>
+      <c r="R121">
+        <v>36</v>
+      </c>
+      <c r="S121">
+        <v>2507.89</v>
+      </c>
+      <c r="T121">
+        <v>2144.12</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -4890,6 +8148,33 @@
       <c r="K122">
         <v>128.91</v>
       </c>
+      <c r="L122">
+        <v>87612</v>
+      </c>
+      <c r="M122">
+        <v>896956.5651402165</v>
+      </c>
+      <c r="N122">
+        <v>0.0976769705524192</v>
+      </c>
+      <c r="O122">
+        <v>9.76769705524192</v>
+      </c>
+      <c r="P122">
+        <v>852</v>
+      </c>
+      <c r="Q122">
+        <v>0.9498787712945848</v>
+      </c>
+      <c r="R122">
+        <v>22</v>
+      </c>
+      <c r="S122">
+        <v>2096.45</v>
+      </c>
+      <c r="T122">
+        <v>193.64</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -4927,6 +8212,33 @@
       <c r="K123">
         <v>507.79</v>
       </c>
+      <c r="L123">
+        <v>155247</v>
+      </c>
+      <c r="M123">
+        <v>633904.3973552739</v>
+      </c>
+      <c r="N123">
+        <v>0.2449060152409564</v>
+      </c>
+      <c r="O123">
+        <v>24.49060152409564</v>
+      </c>
+      <c r="P123">
+        <v>1851</v>
+      </c>
+      <c r="Q123">
+        <v>2.91999867444144</v>
+      </c>
+      <c r="R123">
+        <v>42</v>
+      </c>
+      <c r="S123">
+        <v>1156.17</v>
+      </c>
+      <c r="T123">
+        <v>414.07</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -4964,6 +8276,33 @@
       <c r="K124">
         <v>283.73</v>
       </c>
+      <c r="L124">
+        <v>64781</v>
+      </c>
+      <c r="M124">
+        <v>480807.6384313047</v>
+      </c>
+      <c r="N124">
+        <v>0.134733716401337</v>
+      </c>
+      <c r="O124">
+        <v>13.4733716401337</v>
+      </c>
+      <c r="P124">
+        <v>1336</v>
+      </c>
+      <c r="Q124">
+        <v>2.778658018742938</v>
+      </c>
+      <c r="R124">
+        <v>7</v>
+      </c>
+      <c r="S124">
+        <v>441</v>
+      </c>
+      <c r="T124">
+        <v>481.71</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -5001,6 +8340,33 @@
       <c r="K125">
         <v>923.7</v>
       </c>
+      <c r="L125">
+        <v>52221</v>
+      </c>
+      <c r="M125">
+        <v>93481.252045366</v>
+      </c>
+      <c r="N125">
+        <v>0.5586253805699715</v>
+      </c>
+      <c r="O125">
+        <v>55.86253805699715</v>
+      </c>
+      <c r="P125">
+        <v>295</v>
+      </c>
+      <c r="Q125">
+        <v>3.155712975012765</v>
+      </c>
+      <c r="R125">
+        <v>15</v>
+      </c>
+      <c r="S125">
+        <v>2127.27</v>
+      </c>
+      <c r="T125">
+        <v>912.27</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -5038,6 +8404,33 @@
       <c r="K126">
         <v>105.09</v>
       </c>
+      <c r="L126">
+        <v>117548</v>
+      </c>
+      <c r="M126">
+        <v>659638.6422454292</v>
+      </c>
+      <c r="N126">
+        <v>0.1782005972237514</v>
+      </c>
+      <c r="O126">
+        <v>17.82005972237514</v>
+      </c>
+      <c r="P126">
+        <v>1491</v>
+      </c>
+      <c r="Q126">
+        <v>2.260328465483151</v>
+      </c>
+      <c r="R126">
+        <v>37</v>
+      </c>
+      <c r="S126">
+        <v>570.8099999999999</v>
+      </c>
+      <c r="T126">
+        <v>147.83</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -5075,6 +8468,33 @@
       <c r="K127">
         <v>79</v>
       </c>
+      <c r="L127">
+        <v>11478</v>
+      </c>
+      <c r="M127">
+        <v>32831.14343127027</v>
+      </c>
+      <c r="N127">
+        <v>0.3496070742716714</v>
+      </c>
+      <c r="O127">
+        <v>34.96070742716714</v>
+      </c>
+      <c r="P127">
+        <v>134</v>
+      </c>
+      <c r="Q127">
+        <v>4.081490499425332</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>226</v>
+      </c>
+      <c r="T127">
+        <v>113</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -5112,6 +8532,33 @@
       <c r="K128">
         <v>85.83</v>
       </c>
+      <c r="L128">
+        <v>58783</v>
+      </c>
+      <c r="M128">
+        <v>535106.2851217593</v>
+      </c>
+      <c r="N128">
+        <v>0.1098529425544392</v>
+      </c>
+      <c r="O128">
+        <v>10.98529425544392</v>
+      </c>
+      <c r="P128">
+        <v>438</v>
+      </c>
+      <c r="Q128">
+        <v>0.8185289767253183</v>
+      </c>
+      <c r="R128">
+        <v>12</v>
+      </c>
+      <c r="S128">
+        <v>590.75</v>
+      </c>
+      <c r="T128">
+        <v>203.92</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -5149,6 +8596,33 @@
       <c r="K129">
         <v>264.59</v>
       </c>
+      <c r="L129">
+        <v>225811</v>
+      </c>
+      <c r="M129">
+        <v>1122828.731905271</v>
+      </c>
+      <c r="N129">
+        <v>0.2011090325564013</v>
+      </c>
+      <c r="O129">
+        <v>20.11090325564013</v>
+      </c>
+      <c r="P129">
+        <v>2003</v>
+      </c>
+      <c r="Q129">
+        <v>1.783887375772092</v>
+      </c>
+      <c r="R129">
+        <v>36</v>
+      </c>
+      <c r="S129">
+        <v>1390.44</v>
+      </c>
+      <c r="T129">
+        <v>303.4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -5186,6 +8660,33 @@
       <c r="K130">
         <v>512.47</v>
       </c>
+      <c r="L130">
+        <v>147887</v>
+      </c>
+      <c r="M130">
+        <v>420486.551787305</v>
+      </c>
+      <c r="N130">
+        <v>0.3517044703841225</v>
+      </c>
+      <c r="O130">
+        <v>35.17044703841225</v>
+      </c>
+      <c r="P130">
+        <v>2020</v>
+      </c>
+      <c r="Q130">
+        <v>4.803958631765656</v>
+      </c>
+      <c r="R130">
+        <v>37</v>
+      </c>
+      <c r="S130">
+        <v>1534.38</v>
+      </c>
+      <c r="T130">
+        <v>367.6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -5223,6 +8724,33 @@
       <c r="K131">
         <v>96.20999999999999</v>
       </c>
+      <c r="L131">
+        <v>93421</v>
+      </c>
+      <c r="M131">
+        <v>841889.7974184286</v>
+      </c>
+      <c r="N131">
+        <v>0.1109658298348147</v>
+      </c>
+      <c r="O131">
+        <v>11.09658298348147</v>
+      </c>
+      <c r="P131">
+        <v>892</v>
+      </c>
+      <c r="Q131">
+        <v>1.059521094964245</v>
+      </c>
+      <c r="R131">
+        <v>23</v>
+      </c>
+      <c r="S131">
+        <v>730.78</v>
+      </c>
+      <c r="T131">
+        <v>128.91</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -5260,6 +8788,33 @@
       <c r="K132">
         <v>1279</v>
       </c>
+      <c r="L132">
+        <v>168559</v>
+      </c>
+      <c r="M132">
+        <v>678867.1428596248</v>
+      </c>
+      <c r="N132">
+        <v>0.2482945326974742</v>
+      </c>
+      <c r="O132">
+        <v>24.82945326974742</v>
+      </c>
+      <c r="P132">
+        <v>1974</v>
+      </c>
+      <c r="Q132">
+        <v>2.907785449277784</v>
+      </c>
+      <c r="R132">
+        <v>48</v>
+      </c>
+      <c r="S132">
+        <v>1307.23</v>
+      </c>
+      <c r="T132">
+        <v>507.79</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -5297,6 +8852,33 @@
       <c r="K133">
         <v>211.27</v>
       </c>
+      <c r="L133">
+        <v>63794</v>
+      </c>
+      <c r="M133">
+        <v>421691.8597033774</v>
+      </c>
+      <c r="N133">
+        <v>0.1512810800874207</v>
+      </c>
+      <c r="O133">
+        <v>15.12810800874207</v>
+      </c>
+      <c r="P133">
+        <v>1278</v>
+      </c>
+      <c r="Q133">
+        <v>3.030648969365828</v>
+      </c>
+      <c r="R133">
+        <v>11</v>
+      </c>
+      <c r="S133">
+        <v>2357.82</v>
+      </c>
+      <c r="T133">
+        <v>283.73</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -5334,6 +8916,33 @@
       <c r="K134">
         <v>948.65</v>
       </c>
+      <c r="L134">
+        <v>51298</v>
+      </c>
+      <c r="M134">
+        <v>79559.04420333102</v>
+      </c>
+      <c r="N134">
+        <v>0.6447789879035805</v>
+      </c>
+      <c r="O134">
+        <v>64.47789879035804</v>
+      </c>
+      <c r="P134">
+        <v>305</v>
+      </c>
+      <c r="Q134">
+        <v>3.833630771386644</v>
+      </c>
+      <c r="R134">
+        <v>10</v>
+      </c>
+      <c r="S134">
+        <v>2518.5</v>
+      </c>
+      <c r="T134">
+        <v>923.7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -5371,6 +8980,33 @@
       <c r="K135">
         <v>134.38</v>
       </c>
+      <c r="L135">
+        <v>120755</v>
+      </c>
+      <c r="M135">
+        <v>645054.3890205867</v>
+      </c>
+      <c r="N135">
+        <v>0.187201268692005</v>
+      </c>
+      <c r="O135">
+        <v>18.72012686920051</v>
+      </c>
+      <c r="P135">
+        <v>1516</v>
+      </c>
+      <c r="Q135">
+        <v>2.350189419378739</v>
+      </c>
+      <c r="R135">
+        <v>47</v>
+      </c>
+      <c r="S135">
+        <v>1390.23</v>
+      </c>
+      <c r="T135">
+        <v>105.09</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -5408,6 +9044,33 @@
       <c r="K136">
         <v>181.18</v>
       </c>
+      <c r="L136">
+        <v>41604</v>
+      </c>
+      <c r="M136">
+        <v>554059.8288219278</v>
+      </c>
+      <c r="N136">
+        <v>0.07508936370366481</v>
+      </c>
+      <c r="O136">
+        <v>7.508936370366481</v>
+      </c>
+      <c r="P136">
+        <v>410</v>
+      </c>
+      <c r="Q136">
+        <v>0.7399922872440767</v>
+      </c>
+      <c r="R136">
+        <v>18</v>
+      </c>
+      <c r="S136">
+        <v>351.28</v>
+      </c>
+      <c r="T136">
+        <v>85.83</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -5445,6 +9108,33 @@
       <c r="K137">
         <v>372.86</v>
       </c>
+      <c r="L137">
+        <v>238355</v>
+      </c>
+      <c r="M137">
+        <v>1165645.800148034</v>
+      </c>
+      <c r="N137">
+        <v>0.2044832143432675</v>
+      </c>
+      <c r="O137">
+        <v>20.44832143432675</v>
+      </c>
+      <c r="P137">
+        <v>2048</v>
+      </c>
+      <c r="Q137">
+        <v>1.756965966625462</v>
+      </c>
+      <c r="R137">
+        <v>51</v>
+      </c>
+      <c r="S137">
+        <v>2134.65</v>
+      </c>
+      <c r="T137">
+        <v>264.59</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -5482,6 +9172,33 @@
       <c r="K138">
         <v>2114.98</v>
       </c>
+      <c r="L138">
+        <v>145985</v>
+      </c>
+      <c r="M138">
+        <v>413617.7328354837</v>
+      </c>
+      <c r="N138">
+        <v>0.3529466664768589</v>
+      </c>
+      <c r="O138">
+        <v>35.29466664768589</v>
+      </c>
+      <c r="P138">
+        <v>1979</v>
+      </c>
+      <c r="Q138">
+        <v>4.784611110440824</v>
+      </c>
+      <c r="R138">
+        <v>47</v>
+      </c>
+      <c r="S138">
+        <v>3822.64</v>
+      </c>
+      <c r="T138">
+        <v>512.47</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -5519,6 +9236,33 @@
       <c r="K139">
         <v>261.15</v>
       </c>
+      <c r="L139">
+        <v>95466</v>
+      </c>
+      <c r="M139">
+        <v>894985.0799941173</v>
+      </c>
+      <c r="N139">
+        <v>0.1066676999806829</v>
+      </c>
+      <c r="O139">
+        <v>10.66676999806829</v>
+      </c>
+      <c r="P139">
+        <v>923</v>
+      </c>
+      <c r="Q139">
+        <v>1.031302108417346</v>
+      </c>
+      <c r="R139">
+        <v>24</v>
+      </c>
+      <c r="S139">
+        <v>863.62</v>
+      </c>
+      <c r="T139">
+        <v>96.20999999999999</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -5556,6 +9300,33 @@
       <c r="K140">
         <v>282.59</v>
       </c>
+      <c r="L140">
+        <v>171240</v>
+      </c>
+      <c r="M140">
+        <v>738771.2261743152</v>
+      </c>
+      <c r="N140">
+        <v>0.2317902943875557</v>
+      </c>
+      <c r="O140">
+        <v>23.17902943875557</v>
+      </c>
+      <c r="P140">
+        <v>2033</v>
+      </c>
+      <c r="Q140">
+        <v>2.751866786322709</v>
+      </c>
+      <c r="R140">
+        <v>60</v>
+      </c>
+      <c r="S140">
+        <v>6081.05</v>
+      </c>
+      <c r="T140">
+        <v>1279</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -5593,6 +9364,33 @@
       <c r="K141">
         <v>62.2</v>
       </c>
+      <c r="L141">
+        <v>64097</v>
+      </c>
+      <c r="M141">
+        <v>440149.9208967644</v>
+      </c>
+      <c r="N141">
+        <v>0.1456253811642368</v>
+      </c>
+      <c r="O141">
+        <v>14.56253811642368</v>
+      </c>
+      <c r="P141">
+        <v>1315</v>
+      </c>
+      <c r="Q141">
+        <v>2.987618394479795</v>
+      </c>
+      <c r="R141">
+        <v>11</v>
+      </c>
+      <c r="S141">
+        <v>471</v>
+      </c>
+      <c r="T141">
+        <v>211.27</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -5630,6 +9428,33 @@
       <c r="K142">
         <v>2925.32</v>
       </c>
+      <c r="L142">
+        <v>54320</v>
+      </c>
+      <c r="M142">
+        <v>83039.11763256275</v>
+      </c>
+      <c r="N142">
+        <v>0.6541495327582707</v>
+      </c>
+      <c r="O142">
+        <v>65.41495327582707</v>
+      </c>
+      <c r="P142">
+        <v>308</v>
+      </c>
+      <c r="Q142">
+        <v>3.709095288835556</v>
+      </c>
+      <c r="R142">
+        <v>17</v>
+      </c>
+      <c r="S142">
+        <v>1455.88</v>
+      </c>
+      <c r="T142">
+        <v>948.65</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -5667,6 +9492,33 @@
       <c r="K143">
         <v>150.93</v>
       </c>
+      <c r="L143">
+        <v>122676</v>
+      </c>
+      <c r="M143">
+        <v>624425.7007439886</v>
+      </c>
+      <c r="N143">
+        <v>0.196462124883448</v>
+      </c>
+      <c r="O143">
+        <v>19.6462124883448</v>
+      </c>
+      <c r="P143">
+        <v>1526</v>
+      </c>
+      <c r="Q143">
+        <v>2.44384559793392</v>
+      </c>
+      <c r="R143">
+        <v>50</v>
+      </c>
+      <c r="S143">
+        <v>968.72</v>
+      </c>
+      <c r="T143">
+        <v>134.38</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -5704,6 +9556,33 @@
       <c r="K144">
         <v>64</v>
       </c>
+      <c r="L144">
+        <v>11725</v>
+      </c>
+      <c r="M144">
+        <v>31630.10743716924</v>
+      </c>
+      <c r="N144">
+        <v>0.3706911215300424</v>
+      </c>
+      <c r="O144">
+        <v>37.06911215300423</v>
+      </c>
+      <c r="P144">
+        <v>142</v>
+      </c>
+      <c r="Q144">
+        <v>4.489393540065332</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>816.5</v>
+      </c>
+      <c r="T144">
+        <v>79</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -5741,6 +9620,33 @@
       <c r="K145">
         <v>352.1</v>
       </c>
+      <c r="L145">
+        <v>55820</v>
+      </c>
+      <c r="M145">
+        <v>552634.9146600248</v>
+      </c>
+      <c r="N145">
+        <v>0.1010070093641113</v>
+      </c>
+      <c r="O145">
+        <v>10.10070093641114</v>
+      </c>
+      <c r="P145">
+        <v>430</v>
+      </c>
+      <c r="Q145">
+        <v>0.7780905415006786</v>
+      </c>
+      <c r="R145">
+        <v>11</v>
+      </c>
+      <c r="S145">
+        <v>377.82</v>
+      </c>
+      <c r="T145">
+        <v>181.18</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -5778,6 +9684,33 @@
       <c r="K146">
         <v>201.41</v>
       </c>
+      <c r="L146">
+        <v>247130</v>
+      </c>
+      <c r="M146">
+        <v>1180556.854881029</v>
+      </c>
+      <c r="N146">
+        <v>0.2093334166653961</v>
+      </c>
+      <c r="O146">
+        <v>20.93334166653961</v>
+      </c>
+      <c r="P146">
+        <v>2149</v>
+      </c>
+      <c r="Q146">
+        <v>1.820327408303064</v>
+      </c>
+      <c r="R146">
+        <v>38</v>
+      </c>
+      <c r="S146">
+        <v>3734.74</v>
+      </c>
+      <c r="T146">
+        <v>372.86</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -5815,6 +9748,33 @@
       <c r="K147">
         <v>659.74</v>
       </c>
+      <c r="L147">
+        <v>144830</v>
+      </c>
+      <c r="M147">
+        <v>409280.7935243975</v>
+      </c>
+      <c r="N147">
+        <v>0.3538646383888195</v>
+      </c>
+      <c r="O147">
+        <v>35.38646383888195</v>
+      </c>
+      <c r="P147">
+        <v>1973</v>
+      </c>
+      <c r="Q147">
+        <v>4.820651325976254</v>
+      </c>
+      <c r="R147">
+        <v>45</v>
+      </c>
+      <c r="S147">
+        <v>2024.4</v>
+      </c>
+      <c r="T147">
+        <v>2114.98</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -5852,6 +9812,33 @@
       <c r="K148">
         <v>122</v>
       </c>
+      <c r="L148">
+        <v>91955</v>
+      </c>
+      <c r="M148">
+        <v>875496.1751492316</v>
+      </c>
+      <c r="N148">
+        <v>0.1050318694816981</v>
+      </c>
+      <c r="O148">
+        <v>10.50318694816981</v>
+      </c>
+      <c r="P148">
+        <v>958</v>
+      </c>
+      <c r="Q148">
+        <v>1.094236647963317</v>
+      </c>
+      <c r="R148">
+        <v>20</v>
+      </c>
+      <c r="S148">
+        <v>2660.15</v>
+      </c>
+      <c r="T148">
+        <v>261.15</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -5889,6 +9876,33 @@
       <c r="K149">
         <v>141.04</v>
       </c>
+      <c r="L149">
+        <v>192319</v>
+      </c>
+      <c r="M149">
+        <v>758959.1464657813</v>
+      </c>
+      <c r="N149">
+        <v>0.2533983560189836</v>
+      </c>
+      <c r="O149">
+        <v>25.33983560189836</v>
+      </c>
+      <c r="P149">
+        <v>2357</v>
+      </c>
+      <c r="Q149">
+        <v>3.10556900325368</v>
+      </c>
+      <c r="R149">
+        <v>73</v>
+      </c>
+      <c r="S149">
+        <v>2169.1</v>
+      </c>
+      <c r="T149">
+        <v>282.59</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -5926,6 +9940,33 @@
       <c r="K150">
         <v>468.11</v>
       </c>
+      <c r="L150">
+        <v>65601</v>
+      </c>
+      <c r="M150">
+        <v>456150.2894848834</v>
+      </c>
+      <c r="N150">
+        <v>0.1438144434240768</v>
+      </c>
+      <c r="O150">
+        <v>14.38144434240768</v>
+      </c>
+      <c r="P150">
+        <v>1354</v>
+      </c>
+      <c r="Q150">
+        <v>2.968319940186886</v>
+      </c>
+      <c r="R150">
+        <v>5</v>
+      </c>
+      <c r="S150">
+        <v>576.4</v>
+      </c>
+      <c r="T150">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -5963,6 +10004,33 @@
       <c r="K151">
         <v>333.7</v>
       </c>
+      <c r="L151">
+        <v>53618</v>
+      </c>
+      <c r="M151">
+        <v>82097.32764613359</v>
+      </c>
+      <c r="N151">
+        <v>0.6531028662846514</v>
+      </c>
+      <c r="O151">
+        <v>65.31028662846514</v>
+      </c>
+      <c r="P151">
+        <v>306</v>
+      </c>
+      <c r="Q151">
+        <v>3.727283320584567</v>
+      </c>
+      <c r="R151">
+        <v>24</v>
+      </c>
+      <c r="S151">
+        <v>30258.04</v>
+      </c>
+      <c r="T151">
+        <v>2925.32</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -6000,6 +10068,33 @@
       <c r="K152">
         <v>84.90000000000001</v>
       </c>
+      <c r="L152">
+        <v>129090</v>
+      </c>
+      <c r="M152">
+        <v>644745.7421559709</v>
+      </c>
+      <c r="N152">
+        <v>0.2002184606420739</v>
+      </c>
+      <c r="O152">
+        <v>20.02184606420739</v>
+      </c>
+      <c r="P152">
+        <v>1514</v>
+      </c>
+      <c r="Q152">
+        <v>2.348212482857695</v>
+      </c>
+      <c r="R152">
+        <v>45</v>
+      </c>
+      <c r="S152">
+        <v>1854.6</v>
+      </c>
+      <c r="T152">
+        <v>150.93</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -6037,6 +10132,33 @@
       <c r="K153">
         <v>1023.67</v>
       </c>
+      <c r="L153">
+        <v>12840</v>
+      </c>
+      <c r="M153">
+        <v>35460.94180164635</v>
+      </c>
+      <c r="N153">
+        <v>0.3620885218396505</v>
+      </c>
+      <c r="O153">
+        <v>36.20885218396504</v>
+      </c>
+      <c r="P153">
+        <v>149</v>
+      </c>
+      <c r="Q153">
+        <v>4.201806055615881</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>256</v>
+      </c>
+      <c r="T153">
+        <v>64</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -6074,6 +10196,33 @@
       <c r="K154">
         <v>102.94</v>
       </c>
+      <c r="L154">
+        <v>48868</v>
+      </c>
+      <c r="M154">
+        <v>605042.9591716912</v>
+      </c>
+      <c r="N154">
+        <v>0.08076781864696135</v>
+      </c>
+      <c r="O154">
+        <v>8.076781864696136</v>
+      </c>
+      <c r="P154">
+        <v>444</v>
+      </c>
+      <c r="Q154">
+        <v>0.7338321903751093</v>
+      </c>
+      <c r="R154">
+        <v>21</v>
+      </c>
+      <c r="S154">
+        <v>1655.81</v>
+      </c>
+      <c r="T154">
+        <v>352.1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -6111,6 +10260,33 @@
       <c r="K155">
         <v>376.43</v>
       </c>
+      <c r="L155">
+        <v>262556</v>
+      </c>
+      <c r="M155">
+        <v>1235884.118050864</v>
+      </c>
+      <c r="N155">
+        <v>0.2124438660269233</v>
+      </c>
+      <c r="O155">
+        <v>21.24438660269233</v>
+      </c>
+      <c r="P155">
+        <v>2139</v>
+      </c>
+      <c r="Q155">
+        <v>1.730744791326761</v>
+      </c>
+      <c r="R155">
+        <v>33</v>
+      </c>
+      <c r="S155">
+        <v>1387.94</v>
+      </c>
+      <c r="T155">
+        <v>201.41</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -6148,6 +10324,33 @@
       <c r="K156">
         <v>330.58</v>
       </c>
+      <c r="L156">
+        <v>150128</v>
+      </c>
+      <c r="M156">
+        <v>421009.4040115874</v>
+      </c>
+      <c r="N156">
+        <v>0.3565906095434107</v>
+      </c>
+      <c r="O156">
+        <v>35.65906095434107</v>
+      </c>
+      <c r="P156">
+        <v>1921</v>
+      </c>
+      <c r="Q156">
+        <v>4.562843446478285</v>
+      </c>
+      <c r="R156">
+        <v>51</v>
+      </c>
+      <c r="S156">
+        <v>3725.61</v>
+      </c>
+      <c r="T156">
+        <v>659.74</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -6185,6 +10388,33 @@
       <c r="K157">
         <v>247.9</v>
       </c>
+      <c r="L157">
+        <v>100080</v>
+      </c>
+      <c r="M157">
+        <v>856582.2997017141</v>
+      </c>
+      <c r="N157">
+        <v>0.1168364091049402</v>
+      </c>
+      <c r="O157">
+        <v>11.68364091049402</v>
+      </c>
+      <c r="P157">
+        <v>978</v>
+      </c>
+      <c r="Q157">
+        <v>1.141746683699356</v>
+      </c>
+      <c r="R157">
+        <v>15</v>
+      </c>
+      <c r="S157">
+        <v>1046.57</v>
+      </c>
+      <c r="T157">
+        <v>122</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -6222,6 +10452,33 @@
       <c r="K158">
         <v>319.43</v>
       </c>
+      <c r="L158">
+        <v>225453</v>
+      </c>
+      <c r="M158">
+        <v>751798.1643200555</v>
+      </c>
+      <c r="N158">
+        <v>0.2998850099666114</v>
+      </c>
+      <c r="O158">
+        <v>29.98850099666114</v>
+      </c>
+      <c r="P158">
+        <v>2628</v>
+      </c>
+      <c r="Q158">
+        <v>3.495619070015723</v>
+      </c>
+      <c r="R158">
+        <v>55</v>
+      </c>
+      <c r="S158">
+        <v>943.91</v>
+      </c>
+      <c r="T158">
+        <v>141.04</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -6259,6 +10516,33 @@
       <c r="K159">
         <v>211</v>
       </c>
+      <c r="L159">
+        <v>54556</v>
+      </c>
+      <c r="M159">
+        <v>84834.9837816036</v>
+      </c>
+      <c r="N159">
+        <v>0.6430837558765518</v>
+      </c>
+      <c r="O159">
+        <v>64.30837558765518</v>
+      </c>
+      <c r="P159">
+        <v>295</v>
+      </c>
+      <c r="Q159">
+        <v>3.477339027487037</v>
+      </c>
+      <c r="R159">
+        <v>25</v>
+      </c>
+      <c r="S159">
+        <v>1663.81</v>
+      </c>
+      <c r="T159">
+        <v>333.7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -6296,6 +10580,33 @@
       <c r="K160">
         <v>852.4299999999999</v>
       </c>
+      <c r="L160">
+        <v>129828</v>
+      </c>
+      <c r="M160">
+        <v>621494.0990942846</v>
+      </c>
+      <c r="N160">
+        <v>0.208896593208529</v>
+      </c>
+      <c r="O160">
+        <v>20.8896593208529</v>
+      </c>
+      <c r="P160">
+        <v>1501</v>
+      </c>
+      <c r="Q160">
+        <v>2.415147629217134</v>
+      </c>
+      <c r="R160">
+        <v>51</v>
+      </c>
+      <c r="S160">
+        <v>1025.89</v>
+      </c>
+      <c r="T160">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -6333,6 +10644,33 @@
       <c r="K161">
         <v>114.64</v>
       </c>
+      <c r="L161">
+        <v>13149</v>
+      </c>
+      <c r="M161">
+        <v>48450.3799203813</v>
+      </c>
+      <c r="N161">
+        <v>0.2713910607431315</v>
+      </c>
+      <c r="O161">
+        <v>27.13910607431315</v>
+      </c>
+      <c r="P161">
+        <v>149</v>
+      </c>
+      <c r="Q161">
+        <v>3.075311282282044</v>
+      </c>
+      <c r="R161">
+        <v>4</v>
+      </c>
+      <c r="S161">
+        <v>6945.25</v>
+      </c>
+      <c r="T161">
+        <v>1023.67</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -6370,6 +10708,33 @@
       <c r="K162">
         <v>99.09999999999999</v>
       </c>
+      <c r="L162">
+        <v>264772</v>
+      </c>
+      <c r="M162">
+        <v>1246484.367628212</v>
+      </c>
+      <c r="N162">
+        <v>0.2124150184922121</v>
+      </c>
+      <c r="O162">
+        <v>21.24150184922121</v>
+      </c>
+      <c r="P162">
+        <v>2158</v>
+      </c>
+      <c r="Q162">
+        <v>1.731269204848676</v>
+      </c>
+      <c r="R162">
+        <v>40</v>
+      </c>
+      <c r="S162">
+        <v>5840</v>
+      </c>
+      <c r="T162">
+        <v>376.43</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -6407,6 +10772,33 @@
       <c r="K163">
         <v>154.09</v>
       </c>
+      <c r="L163">
+        <v>156503</v>
+      </c>
+      <c r="M163">
+        <v>440438.6492727437</v>
+      </c>
+      <c r="N163">
+        <v>0.3553343927886873</v>
+      </c>
+      <c r="O163">
+        <v>35.53343927886873</v>
+      </c>
+      <c r="P163">
+        <v>1909</v>
+      </c>
+      <c r="Q163">
+        <v>4.334315353914008</v>
+      </c>
+      <c r="R163">
+        <v>50</v>
+      </c>
+      <c r="S163">
+        <v>491.32</v>
+      </c>
+      <c r="T163">
+        <v>330.58</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -6421,19 +10813,19 @@
         <v>114661</v>
       </c>
       <c r="D164">
-        <v>187225.329435418</v>
+        <v>792264.2873527175</v>
       </c>
       <c r="E164">
-        <v>0.6124224769466968</v>
+        <v>0.144725695491248</v>
       </c>
       <c r="F164">
-        <v>61.24224769466969</v>
+        <v>14.4725695491248</v>
       </c>
       <c r="G164">
         <v>993</v>
       </c>
       <c r="H164">
-        <v>5.303769543332693</v>
+        <v>1.253369634163397</v>
       </c>
       <c r="I164">
         <v>14</v>
@@ -6443,6 +10835,33 @@
       </c>
       <c r="K164">
         <v>408.62</v>
+      </c>
+      <c r="L164">
+        <v>114412</v>
+      </c>
+      <c r="M164">
+        <v>847613.1158857357</v>
+      </c>
+      <c r="N164">
+        <v>0.1349813940531609</v>
+      </c>
+      <c r="O164">
+        <v>13.49813940531609</v>
+      </c>
+      <c r="P164">
+        <v>969</v>
+      </c>
+      <c r="Q164">
+        <v>1.143210247504745</v>
+      </c>
+      <c r="R164">
+        <v>11</v>
+      </c>
+      <c r="S164">
+        <v>3576.45</v>
+      </c>
+      <c r="T164">
+        <v>247.9</v>
       </c>
     </row>
     <row r="165">
@@ -6458,19 +10877,19 @@
         <v>273634</v>
       </c>
       <c r="D165">
-        <v>1413108.568052768</v>
+        <v>808069.6101354691</v>
       </c>
       <c r="E165">
-        <v>0.1936397571894009</v>
+        <v>0.3386267675059906</v>
       </c>
       <c r="F165">
-        <v>19.36397571894009</v>
+        <v>33.86267675059906</v>
       </c>
       <c r="G165">
         <v>3062</v>
       </c>
       <c r="H165">
-        <v>2.166854033175503</v>
+        <v>3.789277509751505</v>
       </c>
       <c r="I165">
         <v>53</v>
@@ -6480,6 +10899,33 @@
       </c>
       <c r="K165">
         <v>129.84</v>
+      </c>
+      <c r="L165">
+        <v>248087</v>
+      </c>
+      <c r="M165">
+        <v>773458.7185995219</v>
+      </c>
+      <c r="N165">
+        <v>0.3207501499875825</v>
+      </c>
+      <c r="O165">
+        <v>32.07501499875825</v>
+      </c>
+      <c r="P165">
+        <v>2869</v>
+      </c>
+      <c r="Q165">
+        <v>3.709312379586089</v>
+      </c>
+      <c r="R165">
+        <v>68</v>
+      </c>
+      <c r="S165">
+        <v>1144.06</v>
+      </c>
+      <c r="T165">
+        <v>319.43</v>
       </c>
     </row>
     <row r="166">
@@ -6518,6 +10964,33 @@
       <c r="K166">
         <v>471.83</v>
       </c>
+      <c r="L166">
+        <v>72956</v>
+      </c>
+      <c r="M166">
+        <v>488350.0353289087</v>
+      </c>
+      <c r="N166">
+        <v>0.1493928426786401</v>
+      </c>
+      <c r="O166">
+        <v>14.93928426786401</v>
+      </c>
+      <c r="P166">
+        <v>1374</v>
+      </c>
+      <c r="Q166">
+        <v>2.813555647793897</v>
+      </c>
+      <c r="R166">
+        <v>18</v>
+      </c>
+      <c r="S166">
+        <v>474.88</v>
+      </c>
+      <c r="T166">
+        <v>468.11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -6555,6 +11028,33 @@
       <c r="K167">
         <v>47</v>
       </c>
+      <c r="L167">
+        <v>60556</v>
+      </c>
+      <c r="M167">
+        <v>93894.16203118279</v>
+      </c>
+      <c r="N167">
+        <v>0.6449389258076451</v>
+      </c>
+      <c r="O167">
+        <v>64.49389258076451</v>
+      </c>
+      <c r="P167">
+        <v>306</v>
+      </c>
+      <c r="Q167">
+        <v>3.258988560954148</v>
+      </c>
+      <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
+        <v>1852</v>
+      </c>
+      <c r="T167">
+        <v>211</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -6592,6 +11092,33 @@
       <c r="K168">
         <v>121</v>
       </c>
+      <c r="L168">
+        <v>134760</v>
+      </c>
+      <c r="M168">
+        <v>642651.8186100421</v>
+      </c>
+      <c r="N168">
+        <v>0.2096936414051785</v>
+      </c>
+      <c r="O168">
+        <v>20.96936414051785</v>
+      </c>
+      <c r="P168">
+        <v>1512</v>
+      </c>
+      <c r="Q168">
+        <v>2.352751452987755</v>
+      </c>
+      <c r="R168">
+        <v>9</v>
+      </c>
+      <c r="S168">
+        <v>10699</v>
+      </c>
+      <c r="T168">
+        <v>852.4299999999999</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -6629,6 +11156,33 @@
       <c r="K169">
         <v>48</v>
       </c>
+      <c r="L169">
+        <v>14395</v>
+      </c>
+      <c r="M169">
+        <v>61686.6766906612</v>
+      </c>
+      <c r="N169">
+        <v>0.2333567112423041</v>
+      </c>
+      <c r="O169">
+        <v>23.33567112423042</v>
+      </c>
+      <c r="P169">
+        <v>151</v>
+      </c>
+      <c r="Q169">
+        <v>2.447854352038064</v>
+      </c>
+      <c r="R169">
+        <v>41</v>
+      </c>
+      <c r="S169">
+        <v>1162.46</v>
+      </c>
+      <c r="T169">
+        <v>114.64</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -6666,6 +11220,33 @@
       <c r="K170">
         <v>193.45</v>
       </c>
+      <c r="L170">
+        <v>85692</v>
+      </c>
+      <c r="M170">
+        <v>513805.3470137427</v>
+      </c>
+      <c r="N170">
+        <v>0.1667791129423727</v>
+      </c>
+      <c r="O170">
+        <v>16.67791129423727</v>
+      </c>
+      <c r="P170">
+        <v>429</v>
+      </c>
+      <c r="Q170">
+        <v>0.834946546378634</v>
+      </c>
+      <c r="R170">
+        <v>16</v>
+      </c>
+      <c r="S170">
+        <v>610.6</v>
+      </c>
+      <c r="T170">
+        <v>102.94</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -6703,6 +11284,33 @@
       <c r="K171">
         <v>573.1799999999999</v>
       </c>
+      <c r="L171">
+        <v>266080</v>
+      </c>
+      <c r="M171">
+        <v>1220492.215549637</v>
+      </c>
+      <c r="N171">
+        <v>0.2180104031881706</v>
+      </c>
+      <c r="O171">
+        <v>21.80104031881706</v>
+      </c>
+      <c r="P171">
+        <v>2219</v>
+      </c>
+      <c r="Q171">
+        <v>1.818118929173747</v>
+      </c>
+      <c r="R171">
+        <v>36</v>
+      </c>
+      <c r="S171">
+        <v>1070.25</v>
+      </c>
+      <c r="T171">
+        <v>99.09999999999999</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -6740,6 +11348,33 @@
       <c r="K172">
         <v>310</v>
       </c>
+      <c r="L172">
+        <v>158347</v>
+      </c>
+      <c r="M172">
+        <v>492631.605930023</v>
+      </c>
+      <c r="N172">
+        <v>0.3214308584628099</v>
+      </c>
+      <c r="O172">
+        <v>32.143085846281</v>
+      </c>
+      <c r="P172">
+        <v>1915</v>
+      </c>
+      <c r="Q172">
+        <v>3.887286111870014</v>
+      </c>
+      <c r="R172">
+        <v>22</v>
+      </c>
+      <c r="S172">
+        <v>1893.47</v>
+      </c>
+      <c r="T172">
+        <v>154.09</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -6754,19 +11389,19 @@
         <v>117507</v>
       </c>
       <c r="D173">
-        <v>187417.7104646558</v>
+        <v>790053.1490562339</v>
       </c>
       <c r="E173">
-        <v>0.6269791670630833</v>
+        <v>0.1487330316199223</v>
       </c>
       <c r="F173">
-        <v>62.69791670630833</v>
+        <v>14.87330316199223</v>
       </c>
       <c r="G173">
         <v>921</v>
       </c>
       <c r="H173">
-        <v>4.914156712920079</v>
+        <v>1.165744356693205</v>
       </c>
       <c r="I173">
         <v>4</v>
@@ -6776,6 +11411,33 @@
       </c>
       <c r="K173">
         <v>78.5</v>
+      </c>
+      <c r="L173">
+        <v>114661</v>
+      </c>
+      <c r="M173">
+        <v>792264.2873527175</v>
+      </c>
+      <c r="N173">
+        <v>0.144725695491248</v>
+      </c>
+      <c r="O173">
+        <v>14.4725695491248</v>
+      </c>
+      <c r="P173">
+        <v>993</v>
+      </c>
+      <c r="Q173">
+        <v>1.253369634163397</v>
+      </c>
+      <c r="R173">
+        <v>14</v>
+      </c>
+      <c r="S173">
+        <v>690.14</v>
+      </c>
+      <c r="T173">
+        <v>408.62</v>
       </c>
     </row>
     <row r="174">
@@ -6791,19 +11453,19 @@
         <v>311475</v>
       </c>
       <c r="D174">
-        <v>1401361.763767411</v>
+        <v>798726.3251758328</v>
       </c>
       <c r="E174">
-        <v>0.2222659473472666</v>
+        <v>0.3899646101328029</v>
       </c>
       <c r="F174">
-        <v>22.22659473472666</v>
+        <v>38.99646101328029</v>
       </c>
       <c r="G174">
         <v>3300</v>
       </c>
       <c r="H174">
-        <v>2.354852319595408</v>
+        <v>4.131577858377878</v>
       </c>
       <c r="I174">
         <v>52</v>
@@ -6813,6 +11475,33 @@
       </c>
       <c r="K174">
         <v>117.54</v>
+      </c>
+      <c r="L174">
+        <v>273634</v>
+      </c>
+      <c r="M174">
+        <v>808069.6101354691</v>
+      </c>
+      <c r="N174">
+        <v>0.3386267675059906</v>
+      </c>
+      <c r="O174">
+        <v>33.86267675059906</v>
+      </c>
+      <c r="P174">
+        <v>3062</v>
+      </c>
+      <c r="Q174">
+        <v>3.789277509751505</v>
+      </c>
+      <c r="R174">
+        <v>53</v>
+      </c>
+      <c r="S174">
+        <v>1279.96</v>
+      </c>
+      <c r="T174">
+        <v>129.84</v>
       </c>
     </row>
     <row r="175">
@@ -6851,6 +11540,33 @@
       <c r="K175">
         <v>854.71</v>
       </c>
+      <c r="L175">
+        <v>68028</v>
+      </c>
+      <c r="M175">
+        <v>482020.8620353944</v>
+      </c>
+      <c r="N175">
+        <v>0.1411308210037697</v>
+      </c>
+      <c r="O175">
+        <v>14.11308210037697</v>
+      </c>
+      <c r="P175">
+        <v>1303</v>
+      </c>
+      <c r="Q175">
+        <v>2.703202501439288</v>
+      </c>
+      <c r="R175">
+        <v>14</v>
+      </c>
+      <c r="S175">
+        <v>1261.57</v>
+      </c>
+      <c r="T175">
+        <v>471.83</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -6888,6 +11604,33 @@
       <c r="K176">
         <v>433.92</v>
       </c>
+      <c r="L176">
+        <v>62898</v>
+      </c>
+      <c r="M176">
+        <v>90010.86718969671</v>
+      </c>
+      <c r="N176">
+        <v>0.6987822911142861</v>
+      </c>
+      <c r="O176">
+        <v>69.87822911142861</v>
+      </c>
+      <c r="P176">
+        <v>307</v>
+      </c>
+      <c r="Q176">
+        <v>3.410699280932396</v>
+      </c>
+      <c r="R176">
+        <v>5</v>
+      </c>
+      <c r="S176">
+        <v>37.6</v>
+      </c>
+      <c r="T176">
+        <v>47</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -6925,6 +11668,33 @@
       <c r="K177">
         <v>109.03</v>
       </c>
+      <c r="L177">
+        <v>128895</v>
+      </c>
+      <c r="M177">
+        <v>613365.4868841992</v>
+      </c>
+      <c r="N177">
+        <v>0.2101438746656035</v>
+      </c>
+      <c r="O177">
+        <v>21.01438746656035</v>
+      </c>
+      <c r="P177">
+        <v>1433</v>
+      </c>
+      <c r="Q177">
+        <v>2.336290565156211</v>
+      </c>
+      <c r="R177">
+        <v>17</v>
+      </c>
+      <c r="S177">
+        <v>1997.06</v>
+      </c>
+      <c r="T177">
+        <v>121</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -6962,6 +11732,33 @@
       <c r="K178">
         <v>236.5</v>
       </c>
+      <c r="L178">
+        <v>19644</v>
+      </c>
+      <c r="M178">
+        <v>65133.78412604852</v>
+      </c>
+      <c r="N178">
+        <v>0.3015946373081048</v>
+      </c>
+      <c r="O178">
+        <v>30.15946373081048</v>
+      </c>
+      <c r="P178">
+        <v>223</v>
+      </c>
+      <c r="Q178">
+        <v>3.423722465877997</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>596</v>
+      </c>
+      <c r="T178">
+        <v>48</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -6999,6 +11796,33 @@
       <c r="K179">
         <v>83.14</v>
       </c>
+      <c r="L179">
+        <v>54656</v>
+      </c>
+      <c r="M179">
+        <v>566715.8765964825</v>
+      </c>
+      <c r="N179">
+        <v>0.09644338946042375</v>
+      </c>
+      <c r="O179">
+        <v>9.644338946042375</v>
+      </c>
+      <c r="P179">
+        <v>411</v>
+      </c>
+      <c r="Q179">
+        <v>0.7252311378116614</v>
+      </c>
+      <c r="R179">
+        <v>11</v>
+      </c>
+      <c r="S179">
+        <v>761.45</v>
+      </c>
+      <c r="T179">
+        <v>193.45</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -7036,6 +11860,33 @@
       <c r="K180">
         <v>457.19</v>
       </c>
+      <c r="L180">
+        <v>258423</v>
+      </c>
+      <c r="M180">
+        <v>1272837.342848539</v>
+      </c>
+      <c r="N180">
+        <v>0.2030290841574963</v>
+      </c>
+      <c r="O180">
+        <v>20.30290841574963</v>
+      </c>
+      <c r="P180">
+        <v>2152</v>
+      </c>
+      <c r="Q180">
+        <v>1.690710923977092</v>
+      </c>
+      <c r="R180">
+        <v>30</v>
+      </c>
+      <c r="S180">
+        <v>1552</v>
+      </c>
+      <c r="T180">
+        <v>573.1799999999999</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -7073,6 +11924,33 @@
       <c r="K181">
         <v>122.6</v>
       </c>
+      <c r="L181">
+        <v>152820</v>
+      </c>
+      <c r="M181">
+        <v>538500.4162832219</v>
+      </c>
+      <c r="N181">
+        <v>0.2837880814554932</v>
+      </c>
+      <c r="O181">
+        <v>28.37880814554932</v>
+      </c>
+      <c r="P181">
+        <v>1870</v>
+      </c>
+      <c r="Q181">
+        <v>3.472606414878761</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>3410</v>
+      </c>
+      <c r="T181">
+        <v>310</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -7087,19 +11965,19 @@
         <v>108913</v>
       </c>
       <c r="D182">
-        <v>211546.3187661504</v>
+        <v>768556.5821889049</v>
       </c>
       <c r="E182">
-        <v>0.5148423316238165</v>
+        <v>0.1417111017250127</v>
       </c>
       <c r="F182">
-        <v>51.48423316238166</v>
+        <v>14.17111017250127</v>
       </c>
       <c r="G182">
         <v>837</v>
       </c>
       <c r="H182">
-        <v>3.956580312443275</v>
+        <v>1.089054494356373</v>
       </c>
       <c r="I182">
         <v>9</v>
@@ -7109,6 +11987,33 @@
       </c>
       <c r="K182">
         <v>170.89</v>
+      </c>
+      <c r="L182">
+        <v>117507</v>
+      </c>
+      <c r="M182">
+        <v>790053.1490562339</v>
+      </c>
+      <c r="N182">
+        <v>0.1487330316199223</v>
+      </c>
+      <c r="O182">
+        <v>14.87330316199223</v>
+      </c>
+      <c r="P182">
+        <v>921</v>
+      </c>
+      <c r="Q182">
+        <v>1.165744356693205</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>773.5</v>
+      </c>
+      <c r="T182">
+        <v>78.5</v>
       </c>
     </row>
     <row r="183">
@@ -7124,19 +12029,19 @@
         <v>403677</v>
       </c>
       <c r="D183">
-        <v>1367442.235211178</v>
+        <v>810431.9717884235</v>
       </c>
       <c r="E183">
-        <v>0.2952058884868793</v>
+        <v>0.4981010301323434</v>
       </c>
       <c r="F183">
-        <v>29.52058884868794</v>
+        <v>49.81010301323434</v>
       </c>
       <c r="G183">
         <v>3912</v>
       </c>
       <c r="H183">
-        <v>2.860815542527</v>
+        <v>4.827055368221938</v>
       </c>
       <c r="I183">
         <v>65</v>
@@ -7146,6 +12051,33 @@
       </c>
       <c r="K183">
         <v>100.52</v>
+      </c>
+      <c r="L183">
+        <v>311475</v>
+      </c>
+      <c r="M183">
+        <v>798726.3251758328</v>
+      </c>
+      <c r="N183">
+        <v>0.3899646101328029</v>
+      </c>
+      <c r="O183">
+        <v>38.99646101328029</v>
+      </c>
+      <c r="P183">
+        <v>3300</v>
+      </c>
+      <c r="Q183">
+        <v>4.131577858377878</v>
+      </c>
+      <c r="R183">
+        <v>52</v>
+      </c>
+      <c r="S183">
+        <v>1085.83</v>
+      </c>
+      <c r="T183">
+        <v>117.54</v>
       </c>
     </row>
   </sheetData>

--- a/output/data/data_graficos_dtohl.xlsx
+++ b/output/data/data_graficos_dtohl.xlsx
@@ -917,31 +917,31 @@
         <v>63.17</v>
       </c>
       <c r="L9">
-        <v>135355</v>
+        <v>29546</v>
       </c>
       <c r="M9">
-        <v>493696.5070385784</v>
+        <v>382094</v>
       </c>
       <c r="N9">
-        <v>0.2741664120978338</v>
+        <v>0.0773265217459578</v>
       </c>
       <c r="O9">
-        <v>27.41664120978338</v>
+        <v>7.73265217459578</v>
       </c>
       <c r="P9">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.534560150055189</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S9">
-        <v>879</v>
+        <v>180.16</v>
       </c>
       <c r="T9">
-        <v>122.6</v>
+        <v>31.91</v>
       </c>
     </row>
     <row r="10">
@@ -981,31 +981,31 @@
         <v>90.79000000000001</v>
       </c>
       <c r="L10">
-        <v>108913</v>
+        <v>100026</v>
       </c>
       <c r="M10">
-        <v>768556.5821889049</v>
+        <v>952798</v>
       </c>
       <c r="N10">
-        <v>0.1417111017250127</v>
+        <v>0.1049813286761727</v>
       </c>
       <c r="O10">
-        <v>14.17111017250127</v>
+        <v>10.49813286761727</v>
       </c>
       <c r="P10">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.089054494356373</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="S10">
-        <v>908.33</v>
+        <v>563.03</v>
       </c>
       <c r="T10">
-        <v>170.89</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="11">
